--- a/result/supertrend.xlsx
+++ b/result/supertrend.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="20">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -431,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -489,7 +489,7 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -504,37 +504,37 @@
         <v>2023</v>
       </c>
       <c r="F2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G2">
-        <v>0.9000000000000001</v>
+        <v>2</v>
       </c>
       <c r="H2">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="I2">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="J2">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K2">
-        <v>64324</v>
+        <v>90692</v>
       </c>
       <c r="L2">
-        <v>13239</v>
+        <v>11286</v>
       </c>
       <c r="M2">
-        <v>-994</v>
+        <v>-823</v>
       </c>
       <c r="N2">
-        <v>63330</v>
+        <v>89869</v>
       </c>
       <c r="O2">
-        <v>0.2992673162625576</v>
+        <v>0.3328017012227539</v>
       </c>
       <c r="P2">
-        <v>267.9160673491835</v>
+        <v>380.188679245283</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -554,45 +554,45 @@
         <v>2023</v>
       </c>
       <c r="F3">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="G3">
-        <v>3.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="H3">
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="I3">
-        <v>120</v>
+        <v>450</v>
       </c>
       <c r="J3">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K3">
-        <v>8707.100000000069</v>
+        <v>64324</v>
       </c>
       <c r="L3">
-        <v>5805</v>
+        <v>13239</v>
       </c>
       <c r="M3">
-        <v>-360.6000000000004</v>
+        <v>-994</v>
       </c>
       <c r="N3">
-        <v>8346.500000000069</v>
+        <v>63330</v>
       </c>
       <c r="O3">
-        <v>0.3381567614125754</v>
+        <v>0.2992673162625576</v>
       </c>
       <c r="P3">
-        <v>95.21555116987497</v>
+        <v>267.9160673491835</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -604,45 +604,45 @@
         <v>2023</v>
       </c>
       <c r="F4">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="H4">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="K4">
-        <v>3718.90000000007</v>
+        <v>42039</v>
       </c>
       <c r="L4">
-        <v>15578</v>
+        <v>11730</v>
       </c>
       <c r="M4">
-        <v>-458.7999999999993</v>
+        <v>-756</v>
       </c>
       <c r="N4">
-        <v>3260.10000000007</v>
+        <v>41283</v>
       </c>
       <c r="O4">
-        <v>0.3732186416741559</v>
+        <v>0.3343563512361467</v>
       </c>
       <c r="P4">
-        <v>37.19070489054256</v>
+        <v>174.6467552246383</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -654,37 +654,37 @@
         <v>2023</v>
       </c>
       <c r="F5">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="G5">
-        <v>3.3</v>
+        <v>3.600000000000001</v>
       </c>
       <c r="H5">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="I5">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="J5">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K5">
-        <v>8615</v>
+        <v>13154.70000000004</v>
       </c>
       <c r="L5">
-        <v>7659</v>
+        <v>6180</v>
       </c>
       <c r="M5">
-        <v>-756</v>
+        <v>-401.8000000000011</v>
       </c>
       <c r="N5">
-        <v>7859</v>
+        <v>12752.90000000004</v>
       </c>
       <c r="O5">
-        <v>0.3581407494450973</v>
+        <v>0.3368932038834951</v>
       </c>
       <c r="P5">
-        <v>33.24731364751671</v>
+        <v>145.483065058922</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -704,42 +704,42 @@
         <v>2023</v>
       </c>
       <c r="F6">
+        <v>80</v>
+      </c>
+      <c r="G6">
+        <v>3.9</v>
+      </c>
+      <c r="H6">
         <v>100</v>
       </c>
-      <c r="G6">
-        <v>2.8</v>
-      </c>
-      <c r="H6">
-        <v>150</v>
-      </c>
       <c r="I6">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="J6">
         <v>100</v>
       </c>
       <c r="K6">
-        <v>9019.000000000477</v>
+        <v>8707.100000000069</v>
       </c>
       <c r="L6">
-        <v>9727</v>
+        <v>5805</v>
       </c>
       <c r="M6">
-        <v>-811</v>
+        <v>-360.6000000000004</v>
       </c>
       <c r="N6">
-        <v>8208.000000000477</v>
+        <v>8346.500000000069</v>
       </c>
       <c r="O6">
-        <v>0.3492340906754395</v>
+        <v>0.3381567614125754</v>
       </c>
       <c r="P6">
-        <v>28.68175067703495</v>
+        <v>95.21555116987497</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -754,45 +754,45 @@
         <v>2023</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G7">
-        <v>1.2</v>
+        <v>3.4</v>
       </c>
       <c r="H7">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="I7">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J7">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K7">
-        <v>-38187</v>
+        <v>19830</v>
       </c>
       <c r="L7">
-        <v>25442</v>
+        <v>7209</v>
       </c>
       <c r="M7">
-        <v>-703</v>
+        <v>-800</v>
       </c>
       <c r="N7">
-        <v>-38890</v>
+        <v>19030</v>
       </c>
       <c r="O7">
-        <v>0.3160128920682336</v>
+        <v>0.3492856152032182</v>
       </c>
       <c r="P7">
-        <v>-164.5232253151705</v>
+        <v>80.50596497165581</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
@@ -804,42 +804,42 @@
         <v>2023</v>
       </c>
       <c r="F8">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H8">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K8">
-        <v>-103056</v>
+        <v>7050.400000000171</v>
       </c>
       <c r="L8">
-        <v>34294</v>
+        <v>11387</v>
       </c>
       <c r="M8">
-        <v>-656</v>
+        <v>-468.1000000000004</v>
       </c>
       <c r="N8">
-        <v>-103712</v>
+        <v>6582.30000000017</v>
       </c>
       <c r="O8">
-        <v>0.354814253222138</v>
+        <v>0.3434618424519189</v>
       </c>
       <c r="P8">
-        <v>-438.7511633809967</v>
+        <v>75.0898367537865</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
@@ -854,37 +854,937 @@
         <v>2023</v>
       </c>
       <c r="F9">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G9">
-        <v>0.6000000000000001</v>
+        <v>2.8</v>
       </c>
       <c r="H9">
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="I9">
         <v>450</v>
       </c>
       <c r="J9">
+        <v>100</v>
+      </c>
+      <c r="K9">
+        <v>17815.40000000017</v>
+      </c>
+      <c r="L9">
+        <v>9494</v>
+      </c>
+      <c r="M9">
+        <v>-811</v>
+      </c>
+      <c r="N9">
+        <v>17004.40000000017</v>
+      </c>
+      <c r="O9">
+        <v>0.349589214240573</v>
+      </c>
+      <c r="P9">
+        <v>59.41958591770828</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10">
+        <v>2020</v>
+      </c>
+      <c r="E10">
+        <v>2023</v>
+      </c>
+      <c r="F10">
+        <v>80</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
         <v>150</v>
       </c>
-      <c r="K9">
+      <c r="I10">
+        <v>150</v>
+      </c>
+      <c r="J10">
+        <v>50</v>
+      </c>
+      <c r="K10">
+        <v>11664</v>
+      </c>
+      <c r="L10">
+        <v>8774</v>
+      </c>
+      <c r="M10">
+        <v>-800</v>
+      </c>
+      <c r="N10">
+        <v>10864</v>
+      </c>
+      <c r="O10">
+        <v>0.3880784134944153</v>
+      </c>
+      <c r="P10">
+        <v>45.95989508418648</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <v>2020</v>
+      </c>
+      <c r="E11">
+        <v>2023</v>
+      </c>
+      <c r="F11">
+        <v>100</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>200</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>3718.90000000007</v>
+      </c>
+      <c r="L11">
+        <v>15578</v>
+      </c>
+      <c r="M11">
+        <v>-458.7999999999993</v>
+      </c>
+      <c r="N11">
+        <v>3260.10000000007</v>
+      </c>
+      <c r="O11">
+        <v>0.3732186416741559</v>
+      </c>
+      <c r="P11">
+        <v>37.19070489054256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12">
+        <v>2020</v>
+      </c>
+      <c r="E12">
+        <v>2023</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>2.8</v>
+      </c>
+      <c r="H12">
+        <v>500</v>
+      </c>
+      <c r="I12">
+        <v>150</v>
+      </c>
+      <c r="J12">
+        <v>100</v>
+      </c>
+      <c r="K12">
+        <v>11126.50000000017</v>
+      </c>
+      <c r="L12">
+        <v>9131</v>
+      </c>
+      <c r="M12">
+        <v>-748.5999999999985</v>
+      </c>
+      <c r="N12">
+        <v>10377.90000000018</v>
+      </c>
+      <c r="O12">
+        <v>0.349468842404994</v>
+      </c>
+      <c r="P12">
+        <v>36.26417401939436</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13">
+        <v>2020</v>
+      </c>
+      <c r="E13">
+        <v>2023</v>
+      </c>
+      <c r="F13">
+        <v>20</v>
+      </c>
+      <c r="G13">
+        <v>3.3</v>
+      </c>
+      <c r="H13">
+        <v>200</v>
+      </c>
+      <c r="I13">
+        <v>250</v>
+      </c>
+      <c r="J13">
+        <v>100</v>
+      </c>
+      <c r="K13">
+        <v>8615</v>
+      </c>
+      <c r="L13">
+        <v>7659</v>
+      </c>
+      <c r="M13">
+        <v>-756</v>
+      </c>
+      <c r="N13">
+        <v>7859</v>
+      </c>
+      <c r="O13">
+        <v>0.3581407494450973</v>
+      </c>
+      <c r="P13">
+        <v>33.24731364751671</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14">
+        <v>2020</v>
+      </c>
+      <c r="E14">
+        <v>2023</v>
+      </c>
+      <c r="F14">
+        <v>100</v>
+      </c>
+      <c r="G14">
+        <v>2.8</v>
+      </c>
+      <c r="H14">
+        <v>150</v>
+      </c>
+      <c r="I14">
+        <v>300</v>
+      </c>
+      <c r="J14">
+        <v>100</v>
+      </c>
+      <c r="K14">
+        <v>9019.000000000477</v>
+      </c>
+      <c r="L14">
+        <v>9727</v>
+      </c>
+      <c r="M14">
+        <v>-811</v>
+      </c>
+      <c r="N14">
+        <v>8208.000000000477</v>
+      </c>
+      <c r="O14">
+        <v>0.3492340906754395</v>
+      </c>
+      <c r="P14">
+        <v>28.68175067703495</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15">
+        <v>2020</v>
+      </c>
+      <c r="E15">
+        <v>2023</v>
+      </c>
+      <c r="F15">
+        <v>60</v>
+      </c>
+      <c r="G15">
+        <v>0.7</v>
+      </c>
+      <c r="H15">
+        <v>400</v>
+      </c>
+      <c r="I15">
+        <v>400</v>
+      </c>
+      <c r="J15">
+        <v>50</v>
+      </c>
+      <c r="K15">
+        <v>6078</v>
+      </c>
+      <c r="L15">
+        <v>46006</v>
+      </c>
+      <c r="M15">
+        <v>-870</v>
+      </c>
+      <c r="N15">
+        <v>5208</v>
+      </c>
+      <c r="O15">
+        <v>0.3162848324131635</v>
+      </c>
+      <c r="P15">
+        <v>22.03232083932651</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16">
+        <v>2020</v>
+      </c>
+      <c r="E16">
+        <v>2023</v>
+      </c>
+      <c r="F16">
+        <v>90</v>
+      </c>
+      <c r="G16">
+        <v>1.5</v>
+      </c>
+      <c r="H16">
+        <v>150</v>
+      </c>
+      <c r="I16">
+        <v>300</v>
+      </c>
+      <c r="J16">
+        <v>50</v>
+      </c>
+      <c r="K16">
+        <v>2840</v>
+      </c>
+      <c r="L16">
+        <v>22060</v>
+      </c>
+      <c r="M16">
+        <v>-658</v>
+      </c>
+      <c r="N16">
+        <v>2182</v>
+      </c>
+      <c r="O16">
+        <v>0.349818676337262</v>
+      </c>
+      <c r="P16">
+        <v>9.230899399272358</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17">
+        <v>2020</v>
+      </c>
+      <c r="E17">
+        <v>2023</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <v>2.7</v>
+      </c>
+      <c r="H17">
+        <v>300</v>
+      </c>
+      <c r="I17">
+        <v>500</v>
+      </c>
+      <c r="J17">
+        <v>50</v>
+      </c>
+      <c r="K17">
+        <v>2260</v>
+      </c>
+      <c r="L17">
+        <v>10386</v>
+      </c>
+      <c r="M17">
+        <v>-589</v>
+      </c>
+      <c r="N17">
+        <v>1671</v>
+      </c>
+      <c r="O17">
+        <v>0.3754092046986328</v>
+      </c>
+      <c r="P17">
+        <v>7.069125983585751</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18">
+        <v>2020</v>
+      </c>
+      <c r="E18">
+        <v>2023</v>
+      </c>
+      <c r="F18">
+        <v>30</v>
+      </c>
+      <c r="G18">
+        <v>3.7</v>
+      </c>
+      <c r="H18">
+        <v>160</v>
+      </c>
+      <c r="I18">
+        <v>100</v>
+      </c>
+      <c r="J18">
+        <v>20</v>
+      </c>
+      <c r="K18">
+        <v>-1825.099999999856</v>
+      </c>
+      <c r="L18">
+        <v>6222</v>
+      </c>
+      <c r="M18">
+        <v>-338.7999999999993</v>
+      </c>
+      <c r="N18">
+        <v>-2163.899999999855</v>
+      </c>
+      <c r="O18">
+        <v>0.4082288653166184</v>
+      </c>
+      <c r="P18">
+        <v>-24.68542876373054</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19">
+        <v>2020</v>
+      </c>
+      <c r="E19">
+        <v>2023</v>
+      </c>
+      <c r="F19">
+        <v>50</v>
+      </c>
+      <c r="G19">
+        <v>2.3</v>
+      </c>
+      <c r="H19">
+        <v>300</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>-11301.59999999965</v>
+      </c>
+      <c r="L19">
+        <v>12644</v>
+      </c>
+      <c r="M19">
+        <v>-688</v>
+      </c>
+      <c r="N19">
+        <v>-11989.59999999965</v>
+      </c>
+      <c r="O19">
+        <v>0.3634925656437836</v>
+      </c>
+      <c r="P19">
+        <v>-41.89604263125587</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>2020</v>
+      </c>
+      <c r="E20">
+        <v>2023</v>
+      </c>
+      <c r="F20">
+        <v>50</v>
+      </c>
+      <c r="G20">
+        <v>1.1</v>
+      </c>
+      <c r="H20">
+        <v>450</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>-22116</v>
+      </c>
+      <c r="L20">
+        <v>31562</v>
+      </c>
+      <c r="M20">
+        <v>-644</v>
+      </c>
+      <c r="N20">
+        <v>-22760</v>
+      </c>
+      <c r="O20">
+        <v>0.3624928711741968</v>
+      </c>
+      <c r="P20">
+        <v>-96.28564176326255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21">
+        <v>2020</v>
+      </c>
+      <c r="E21">
+        <v>2023</v>
+      </c>
+      <c r="F21">
+        <v>50</v>
+      </c>
+      <c r="G21">
+        <v>3.5</v>
+      </c>
+      <c r="H21">
+        <v>100</v>
+      </c>
+      <c r="I21">
+        <v>500</v>
+      </c>
+      <c r="J21">
+        <v>250</v>
+      </c>
+      <c r="K21">
+        <v>-23303</v>
+      </c>
+      <c r="L21">
+        <v>6740</v>
+      </c>
+      <c r="M21">
+        <v>-800</v>
+      </c>
+      <c r="N21">
+        <v>-24103</v>
+      </c>
+      <c r="O21">
+        <v>0.2514836795252225</v>
+      </c>
+      <c r="P21">
+        <v>-101.9671715035113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22">
+        <v>2020</v>
+      </c>
+      <c r="E22">
+        <v>2023</v>
+      </c>
+      <c r="F22">
+        <v>10</v>
+      </c>
+      <c r="G22">
+        <v>1.2</v>
+      </c>
+      <c r="H22">
+        <v>100</v>
+      </c>
+      <c r="I22">
+        <v>500</v>
+      </c>
+      <c r="J22">
+        <v>100</v>
+      </c>
+      <c r="K22">
+        <v>-38187</v>
+      </c>
+      <c r="L22">
+        <v>25442</v>
+      </c>
+      <c r="M22">
+        <v>-703</v>
+      </c>
+      <c r="N22">
+        <v>-38890</v>
+      </c>
+      <c r="O22">
+        <v>0.3160128920682336</v>
+      </c>
+      <c r="P22">
+        <v>-164.5232253151705</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23">
+        <v>2020</v>
+      </c>
+      <c r="E23">
+        <v>2023</v>
+      </c>
+      <c r="F23">
+        <v>30</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>100</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>-45137.59999999935</v>
+      </c>
+      <c r="L23">
+        <v>15058</v>
+      </c>
+      <c r="M23">
+        <v>-2008</v>
+      </c>
+      <c r="N23">
+        <v>-47145.59999999935</v>
+      </c>
+      <c r="O23">
+        <v>0.3588790011953779</v>
+      </c>
+      <c r="P23">
+        <v>-164.7439503800099</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24">
+        <v>2020</v>
+      </c>
+      <c r="E24">
+        <v>2023</v>
+      </c>
+      <c r="F24">
+        <v>40</v>
+      </c>
+      <c r="G24">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="H24">
+        <v>400</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>-45139</v>
+      </c>
+      <c r="L24">
+        <v>53355</v>
+      </c>
+      <c r="M24">
+        <v>-1081</v>
+      </c>
+      <c r="N24">
+        <v>-46220</v>
+      </c>
+      <c r="O24">
+        <v>0.3617842751382251</v>
+      </c>
+      <c r="P24">
+        <v>-195.5326169726711</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25">
+        <v>2020</v>
+      </c>
+      <c r="E25">
+        <v>2023</v>
+      </c>
+      <c r="F25">
+        <v>70</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>50</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>-103056</v>
+      </c>
+      <c r="L25">
+        <v>34294</v>
+      </c>
+      <c r="M25">
+        <v>-656</v>
+      </c>
+      <c r="N25">
+        <v>-103712</v>
+      </c>
+      <c r="O25">
+        <v>0.354814253222138</v>
+      </c>
+      <c r="P25">
+        <v>-438.7511633809967</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26">
+        <v>2020</v>
+      </c>
+      <c r="E26">
+        <v>2023</v>
+      </c>
+      <c r="F26">
+        <v>70</v>
+      </c>
+      <c r="G26">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="H26">
+        <v>100</v>
+      </c>
+      <c r="I26">
+        <v>450</v>
+      </c>
+      <c r="J26">
+        <v>150</v>
+      </c>
+      <c r="K26">
         <v>-151904.500000001</v>
       </c>
-      <c r="L9">
+      <c r="L26">
         <v>28243</v>
       </c>
-      <c r="M9">
+      <c r="M26">
         <v>-1048</v>
       </c>
-      <c r="N9">
+      <c r="N26">
         <v>-152952.500000001</v>
       </c>
-      <c r="O9">
+      <c r="O26">
         <v>0.2569132174344085</v>
       </c>
-      <c r="P9">
+      <c r="P26">
         <v>-534.4719140386162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27">
+        <v>2020</v>
+      </c>
+      <c r="E27">
+        <v>2023</v>
+      </c>
+      <c r="F27">
+        <v>50</v>
+      </c>
+      <c r="G27">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="H27">
+        <v>20</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>-84208.20000000112</v>
+      </c>
+      <c r="L27">
+        <v>36663</v>
+      </c>
+      <c r="M27">
+        <v>-440.6000000000004</v>
+      </c>
+      <c r="N27">
+        <v>-84648.80000000112</v>
+      </c>
+      <c r="O27">
+        <v>0.3509805526007146</v>
+      </c>
+      <c r="P27">
+        <v>-965.6601147629008</v>
       </c>
     </row>
   </sheetData>

--- a/result/supertrend.xlsx
+++ b/result/supertrend.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="20">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -431,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:P115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -489,7 +489,7 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -504,42 +504,42 @@
         <v>2023</v>
       </c>
       <c r="F2">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H2">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="I2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="J2">
         <v>200</v>
       </c>
       <c r="K2">
-        <v>90692</v>
+        <v>93332</v>
       </c>
       <c r="L2">
-        <v>11286</v>
+        <v>12753</v>
       </c>
       <c r="M2">
-        <v>-823</v>
+        <v>-778</v>
       </c>
       <c r="N2">
-        <v>89869</v>
+        <v>92554</v>
       </c>
       <c r="O2">
-        <v>0.3328017012227539</v>
+        <v>0.3254136281659217</v>
       </c>
       <c r="P2">
-        <v>380.188679245283</v>
+        <v>391.5475082494289</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -554,45 +554,45 @@
         <v>2023</v>
       </c>
       <c r="F3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G3">
-        <v>0.9000000000000001</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="I3">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="J3">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K3">
-        <v>64324</v>
+        <v>90692</v>
       </c>
       <c r="L3">
-        <v>13239</v>
+        <v>11286</v>
       </c>
       <c r="M3">
-        <v>-994</v>
+        <v>-823</v>
       </c>
       <c r="N3">
-        <v>63330</v>
+        <v>89869</v>
       </c>
       <c r="O3">
-        <v>0.2992673162625576</v>
+        <v>0.3328017012227539</v>
       </c>
       <c r="P3">
-        <v>267.9160673491835</v>
+        <v>380.188679245283</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -604,45 +604,45 @@
         <v>2023</v>
       </c>
       <c r="F4">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G4">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H4">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="I4">
-        <v>450</v>
+        <v>140</v>
       </c>
       <c r="J4">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K4">
-        <v>42039</v>
+        <v>30630.29999999995</v>
       </c>
       <c r="L4">
-        <v>11730</v>
+        <v>11107</v>
       </c>
       <c r="M4">
-        <v>-756</v>
+        <v>-468.1000000000004</v>
       </c>
       <c r="N4">
-        <v>41283</v>
+        <v>30162.19999999995</v>
       </c>
       <c r="O4">
-        <v>0.3343563512361467</v>
+        <v>0.3252903574322499</v>
       </c>
       <c r="P4">
-        <v>174.6467552246383</v>
+        <v>344.0856044444946</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -654,45 +654,45 @@
         <v>2023</v>
       </c>
       <c r="F5">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G5">
-        <v>3.600000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="H5">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="I5">
-        <v>160</v>
+        <v>350</v>
       </c>
       <c r="J5">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K5">
-        <v>13154.70000000004</v>
+        <v>71877</v>
       </c>
       <c r="L5">
-        <v>6180</v>
+        <v>18234</v>
       </c>
       <c r="M5">
-        <v>-401.8000000000011</v>
+        <v>-703</v>
       </c>
       <c r="N5">
-        <v>12752.90000000004</v>
+        <v>71174</v>
       </c>
       <c r="O5">
-        <v>0.3368932038834951</v>
+        <v>0.3194581550948777</v>
       </c>
       <c r="P5">
-        <v>145.483065058922</v>
+        <v>301.0999238514257</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -704,42 +704,42 @@
         <v>2023</v>
       </c>
       <c r="F6">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G6">
-        <v>3.9</v>
+        <v>1.2</v>
       </c>
       <c r="H6">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="I6">
-        <v>120</v>
+        <v>350</v>
       </c>
       <c r="J6">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K6">
-        <v>8707.100000000069</v>
+        <v>67509</v>
       </c>
       <c r="L6">
-        <v>5805</v>
+        <v>19927</v>
       </c>
       <c r="M6">
-        <v>-360.6000000000004</v>
+        <v>-703</v>
       </c>
       <c r="N6">
-        <v>8346.500000000069</v>
+        <v>66806</v>
       </c>
       <c r="O6">
-        <v>0.3381567614125754</v>
+        <v>0.3144477342299393</v>
       </c>
       <c r="P6">
-        <v>95.21555116987497</v>
+        <v>282.6212031474744</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -757,39 +757,39 @@
         <v>30</v>
       </c>
       <c r="G7">
-        <v>3.4</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="H7">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="I7">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="J7">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K7">
-        <v>19830</v>
+        <v>64324</v>
       </c>
       <c r="L7">
-        <v>7209</v>
+        <v>13239</v>
       </c>
       <c r="M7">
-        <v>-800</v>
+        <v>-994</v>
       </c>
       <c r="N7">
-        <v>19030</v>
+        <v>63330</v>
       </c>
       <c r="O7">
-        <v>0.3492856152032182</v>
+        <v>0.2992673162625576</v>
       </c>
       <c r="P7">
-        <v>80.50596497165581</v>
+        <v>267.9160673491835</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
@@ -804,45 +804,45 @@
         <v>2023</v>
       </c>
       <c r="F8">
+        <v>70</v>
+      </c>
+      <c r="G8">
+        <v>1.8</v>
+      </c>
+      <c r="H8">
+        <v>160</v>
+      </c>
+      <c r="I8">
         <v>100</v>
       </c>
-      <c r="G8">
-        <v>2.5</v>
-      </c>
-      <c r="H8">
-        <v>120</v>
-      </c>
-      <c r="I8">
-        <v>160</v>
-      </c>
       <c r="J8">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K8">
-        <v>7050.400000000171</v>
+        <v>23648.70000000015</v>
       </c>
       <c r="L8">
-        <v>11387</v>
+        <v>14774</v>
       </c>
       <c r="M8">
-        <v>-468.1000000000004</v>
+        <v>-458.7999999999993</v>
       </c>
       <c r="N8">
-        <v>6582.30000000017</v>
+        <v>23189.90000000015</v>
       </c>
       <c r="O8">
-        <v>0.3434618424519189</v>
+        <v>0.3238797888181941</v>
       </c>
       <c r="P8">
-        <v>75.0898367537865</v>
+        <v>264.5467094080489</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
@@ -857,39 +857,39 @@
         <v>50</v>
       </c>
       <c r="G9">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H9">
         <v>450</v>
       </c>
       <c r="I9">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="J9">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K9">
-        <v>17815.40000000017</v>
+        <v>58158</v>
       </c>
       <c r="L9">
-        <v>9494</v>
+        <v>7663</v>
       </c>
       <c r="M9">
-        <v>-811</v>
+        <v>-798</v>
       </c>
       <c r="N9">
-        <v>17004.40000000017</v>
+        <v>57360</v>
       </c>
       <c r="O9">
-        <v>0.349589214240573</v>
+        <v>0.3353777893775284</v>
       </c>
       <c r="P9">
-        <v>59.41958591770828</v>
+        <v>242.6601235299095</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -904,45 +904,45 @@
         <v>2023</v>
       </c>
       <c r="F10">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="H10">
+        <v>450</v>
+      </c>
+      <c r="I10">
+        <v>350</v>
+      </c>
+      <c r="J10">
         <v>150</v>
       </c>
-      <c r="I10">
-        <v>150</v>
-      </c>
-      <c r="J10">
-        <v>50</v>
-      </c>
       <c r="K10">
-        <v>11664</v>
+        <v>56612</v>
       </c>
       <c r="L10">
-        <v>8774</v>
+        <v>16489</v>
       </c>
       <c r="M10">
-        <v>-800</v>
+        <v>-756</v>
       </c>
       <c r="N10">
-        <v>10864</v>
+        <v>55856</v>
       </c>
       <c r="O10">
-        <v>0.3880784134944153</v>
+        <v>0.3233064467220571</v>
       </c>
       <c r="P10">
-        <v>45.95989508418648</v>
+        <v>236.2974870970471</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
@@ -954,45 +954,45 @@
         <v>2023</v>
       </c>
       <c r="F11">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="H11">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="K11">
-        <v>3718.90000000007</v>
+        <v>42039</v>
       </c>
       <c r="L11">
-        <v>15578</v>
+        <v>11730</v>
       </c>
       <c r="M11">
-        <v>-458.7999999999993</v>
+        <v>-756</v>
       </c>
       <c r="N11">
-        <v>3260.10000000007</v>
+        <v>41283</v>
       </c>
       <c r="O11">
-        <v>0.3732186416741559</v>
+        <v>0.3343563512361467</v>
       </c>
       <c r="P11">
-        <v>37.19070489054256</v>
+        <v>174.6467552246383</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1004,42 +1004,42 @@
         <v>2023</v>
       </c>
       <c r="F12">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G12">
-        <v>2.8</v>
+        <v>2.600000000000001</v>
       </c>
       <c r="H12">
         <v>500</v>
       </c>
       <c r="I12">
+        <v>500</v>
+      </c>
+      <c r="J12">
         <v>150</v>
       </c>
-      <c r="J12">
-        <v>100</v>
-      </c>
       <c r="K12">
-        <v>11126.50000000017</v>
+        <v>40499</v>
       </c>
       <c r="L12">
-        <v>9131</v>
+        <v>10211</v>
       </c>
       <c r="M12">
-        <v>-748.5999999999985</v>
+        <v>-756</v>
       </c>
       <c r="N12">
-        <v>10377.90000000018</v>
+        <v>39743</v>
       </c>
       <c r="O12">
-        <v>0.349468842404994</v>
+        <v>0.3458035451963569</v>
       </c>
       <c r="P12">
-        <v>36.26417401939436</v>
+        <v>168.131821643117</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
@@ -1054,45 +1054,45 @@
         <v>2023</v>
       </c>
       <c r="F13">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="G13">
-        <v>3.3</v>
+        <v>0.4</v>
       </c>
       <c r="H13">
+        <v>400</v>
+      </c>
+      <c r="I13">
         <v>200</v>
       </c>
-      <c r="I13">
-        <v>250</v>
-      </c>
       <c r="J13">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K13">
-        <v>8615</v>
+        <v>40590</v>
       </c>
       <c r="L13">
-        <v>7659</v>
+        <v>30981</v>
       </c>
       <c r="M13">
-        <v>-756</v>
+        <v>-1062</v>
       </c>
       <c r="N13">
-        <v>7859</v>
+        <v>39528</v>
       </c>
       <c r="O13">
-        <v>0.3581407494450973</v>
+        <v>0.2703592524450469</v>
       </c>
       <c r="P13">
-        <v>33.24731364751671</v>
+        <v>167.222269227515</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
         <v>19</v>
@@ -1104,45 +1104,45 @@
         <v>2023</v>
       </c>
       <c r="F14">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G14">
-        <v>2.8</v>
+        <v>0.7</v>
       </c>
       <c r="H14">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="I14">
+        <v>350</v>
+      </c>
+      <c r="J14">
         <v>300</v>
       </c>
-      <c r="J14">
-        <v>100</v>
-      </c>
       <c r="K14">
-        <v>9019.000000000477</v>
+        <v>39142</v>
       </c>
       <c r="L14">
-        <v>9727</v>
+        <v>10886</v>
       </c>
       <c r="M14">
-        <v>-811</v>
+        <v>-994</v>
       </c>
       <c r="N14">
-        <v>8208.000000000477</v>
+        <v>38148</v>
       </c>
       <c r="O14">
-        <v>0.3492340906754395</v>
+        <v>0.2873415395921367</v>
       </c>
       <c r="P14">
-        <v>28.68175067703495</v>
+        <v>161.3842118622557</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
         <v>19</v>
@@ -1154,42 +1154,42 @@
         <v>2023</v>
       </c>
       <c r="F15">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G15">
-        <v>0.7</v>
+        <v>3.600000000000001</v>
       </c>
       <c r="H15">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="I15">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="J15">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K15">
-        <v>6078</v>
+        <v>13154.70000000004</v>
       </c>
       <c r="L15">
-        <v>46006</v>
+        <v>6180</v>
       </c>
       <c r="M15">
-        <v>-870</v>
+        <v>-401.8000000000011</v>
       </c>
       <c r="N15">
-        <v>5208</v>
+        <v>12752.90000000004</v>
       </c>
       <c r="O15">
-        <v>0.3162848324131635</v>
+        <v>0.3368932038834951</v>
       </c>
       <c r="P15">
-        <v>22.03232083932651</v>
+        <v>145.483065058922</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -1204,45 +1204,45 @@
         <v>2023</v>
       </c>
       <c r="F16">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="G16">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="H16">
+        <v>300</v>
+      </c>
+      <c r="I16">
+        <v>400</v>
+      </c>
+      <c r="J16">
         <v>150</v>
       </c>
-      <c r="I16">
-        <v>300</v>
-      </c>
-      <c r="J16">
-        <v>50</v>
-      </c>
       <c r="K16">
-        <v>2840</v>
+        <v>33093</v>
       </c>
       <c r="L16">
-        <v>22060</v>
+        <v>9747</v>
       </c>
       <c r="M16">
-        <v>-658</v>
+        <v>-756</v>
       </c>
       <c r="N16">
-        <v>2182</v>
+        <v>32337</v>
       </c>
       <c r="O16">
-        <v>0.349818676337262</v>
+        <v>0.3424643480045142</v>
       </c>
       <c r="P16">
-        <v>9.230899399272358</v>
+        <v>136.800913782892</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
@@ -1254,45 +1254,45 @@
         <v>2023</v>
       </c>
       <c r="F17">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G17">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="H17">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I17">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="J17">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K17">
-        <v>2260</v>
+        <v>12299.40000000016</v>
       </c>
       <c r="L17">
-        <v>10386</v>
+        <v>6359</v>
       </c>
       <c r="M17">
-        <v>-589</v>
+        <v>-403.4000000000015</v>
       </c>
       <c r="N17">
-        <v>1671</v>
+        <v>11896.00000000016</v>
       </c>
       <c r="O17">
-        <v>0.3754092046986328</v>
+        <v>0.3695549614719296</v>
       </c>
       <c r="P17">
-        <v>7.069125983585751</v>
+        <v>135.7076854629891</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
         <v>19</v>
@@ -1310,39 +1310,39 @@
         <v>3.7</v>
       </c>
       <c r="H18">
-        <v>160</v>
+        <v>350</v>
       </c>
       <c r="I18">
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="J18">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="K18">
-        <v>-1825.099999999856</v>
+        <v>32825</v>
       </c>
       <c r="L18">
-        <v>6222</v>
+        <v>5720</v>
       </c>
       <c r="M18">
-        <v>-338.7999999999993</v>
+        <v>-800</v>
       </c>
       <c r="N18">
-        <v>-2163.899999999855</v>
+        <v>32025</v>
       </c>
       <c r="O18">
-        <v>0.4082288653166184</v>
+        <v>0.3423076923076923</v>
       </c>
       <c r="P18">
-        <v>-24.68542876373054</v>
+        <v>135.4810051611811</v>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
         <v>19</v>
@@ -1354,42 +1354,42 @@
         <v>2023</v>
       </c>
       <c r="F19">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G19">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H19">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K19">
-        <v>-11301.59999999965</v>
+        <v>31221</v>
       </c>
       <c r="L19">
-        <v>12644</v>
+        <v>20737</v>
       </c>
       <c r="M19">
-        <v>-688</v>
+        <v>-703</v>
       </c>
       <c r="N19">
-        <v>-11989.59999999965</v>
+        <v>30518</v>
       </c>
       <c r="O19">
-        <v>0.3634925656437836</v>
+        <v>0.331533008631914</v>
       </c>
       <c r="P19">
-        <v>-41.89604263125587</v>
+        <v>129.1056772992639</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
         <v>16</v>
@@ -1404,45 +1404,45 @@
         <v>2023</v>
       </c>
       <c r="F20">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G20">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H20">
+        <v>300</v>
+      </c>
+      <c r="I20">
         <v>450</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
       <c r="J20">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K20">
-        <v>-22116</v>
+        <v>31415</v>
       </c>
       <c r="L20">
-        <v>31562</v>
+        <v>29386</v>
       </c>
       <c r="M20">
-        <v>-644</v>
+        <v>-1081</v>
       </c>
       <c r="N20">
-        <v>-22760</v>
+        <v>30334</v>
       </c>
       <c r="O20">
-        <v>0.3624928711741968</v>
+        <v>0.3146055945007827</v>
       </c>
       <c r="P20">
-        <v>-96.28564176326255</v>
+        <v>128.3272696505626</v>
       </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
         <v>19</v>
@@ -1454,45 +1454,45 @@
         <v>2023</v>
       </c>
       <c r="F21">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G21">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
       <c r="H21">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="I21">
-        <v>500</v>
+        <v>180</v>
       </c>
       <c r="J21">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="K21">
-        <v>-23303</v>
+        <v>10959.30000000001</v>
       </c>
       <c r="L21">
-        <v>6740</v>
+        <v>19592</v>
       </c>
       <c r="M21">
-        <v>-800</v>
+        <v>-451.8999999999996</v>
       </c>
       <c r="N21">
-        <v>-24103</v>
+        <v>10507.40000000001</v>
       </c>
       <c r="O21">
-        <v>0.2514836795252225</v>
+        <v>0.3727031441404655</v>
       </c>
       <c r="P21">
-        <v>-101.9671715035113</v>
+        <v>119.8667564083552</v>
       </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
         <v>19</v>
@@ -1504,45 +1504,45 @@
         <v>2023</v>
       </c>
       <c r="F22">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G22">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="H22">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I22">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="J22">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K22">
-        <v>-38187</v>
+        <v>10811.20000000001</v>
       </c>
       <c r="L22">
-        <v>25442</v>
+        <v>6189</v>
       </c>
       <c r="M22">
-        <v>-703</v>
+        <v>-403.4000000000015</v>
       </c>
       <c r="N22">
-        <v>-38890</v>
+        <v>10407.8</v>
       </c>
       <c r="O22">
-        <v>0.3160128920682336</v>
+        <v>0.3297786395217321</v>
       </c>
       <c r="P22">
-        <v>-164.5232253151705</v>
+        <v>118.7305353700133</v>
       </c>
     </row>
     <row r="23" spans="1:16">
       <c r="A23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
         <v>19</v>
@@ -1554,45 +1554,45 @@
         <v>2023</v>
       </c>
       <c r="F23">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H23">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K23">
-        <v>-45137.59999999935</v>
+        <v>9237.000000000082</v>
       </c>
       <c r="L23">
-        <v>15058</v>
+        <v>19874</v>
       </c>
       <c r="M23">
-        <v>-2008</v>
+        <v>-468.1000000000004</v>
       </c>
       <c r="N23">
-        <v>-47145.59999999935</v>
+        <v>8768.900000000081</v>
       </c>
       <c r="O23">
-        <v>0.3588790011953779</v>
+        <v>0.3713897554593942</v>
       </c>
       <c r="P23">
-        <v>-164.7439503800099</v>
+        <v>100.0342235252522</v>
       </c>
     </row>
     <row r="24" spans="1:16">
       <c r="A24">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C24" t="s">
         <v>19</v>
@@ -1604,42 +1604,42 @@
         <v>2023</v>
       </c>
       <c r="F24">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="G24">
-        <v>0.6000000000000001</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="H24">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K24">
-        <v>-45139</v>
+        <v>9056.500000000016</v>
       </c>
       <c r="L24">
-        <v>53355</v>
+        <v>36049</v>
       </c>
       <c r="M24">
-        <v>-1081</v>
+        <v>-440.6000000000004</v>
       </c>
       <c r="N24">
-        <v>-46220</v>
+        <v>8615.900000000016</v>
       </c>
       <c r="O24">
-        <v>0.3617842751382251</v>
+        <v>0.3423950733723543</v>
       </c>
       <c r="P24">
-        <v>-195.5326169726711</v>
+        <v>98.2888237374373</v>
       </c>
     </row>
     <row r="25" spans="1:16">
       <c r="A25">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B25" t="s">
         <v>16</v>
@@ -1654,37 +1654,37 @@
         <v>2023</v>
       </c>
       <c r="F25">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="H25">
-        <v>50</v>
+        <v>350</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K25">
-        <v>-103056</v>
+        <v>23864</v>
       </c>
       <c r="L25">
-        <v>34294</v>
+        <v>39378</v>
       </c>
       <c r="M25">
-        <v>-656</v>
+        <v>-1062</v>
       </c>
       <c r="N25">
-        <v>-103712</v>
+        <v>22802</v>
       </c>
       <c r="O25">
-        <v>0.354814253222138</v>
+        <v>0.2941490172177358</v>
       </c>
       <c r="P25">
-        <v>-438.7511633809967</v>
+        <v>96.46332177003131</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1692,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C26" t="s">
         <v>19</v>
@@ -1704,42 +1704,42 @@
         <v>2023</v>
       </c>
       <c r="F26">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G26">
-        <v>0.6000000000000001</v>
+        <v>3.9</v>
       </c>
       <c r="H26">
         <v>100</v>
       </c>
       <c r="I26">
-        <v>450</v>
+        <v>120</v>
       </c>
       <c r="J26">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K26">
-        <v>-151904.500000001</v>
+        <v>8707.100000000069</v>
       </c>
       <c r="L26">
-        <v>28243</v>
+        <v>5805</v>
       </c>
       <c r="M26">
-        <v>-1048</v>
+        <v>-360.6000000000004</v>
       </c>
       <c r="N26">
-        <v>-152952.500000001</v>
+        <v>8346.500000000069</v>
       </c>
       <c r="O26">
-        <v>0.2569132174344085</v>
+        <v>0.3381567614125754</v>
       </c>
       <c r="P26">
-        <v>-534.4719140386162</v>
+        <v>95.21555116987497</v>
       </c>
     </row>
     <row r="27" spans="1:16">
       <c r="A27">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B27" t="s">
         <v>17</v>
@@ -1754,37 +1754,4437 @@
         <v>2023</v>
       </c>
       <c r="F27">
+        <v>90</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="H27">
+        <v>160</v>
+      </c>
+      <c r="I27">
+        <v>60</v>
+      </c>
+      <c r="J27">
+        <v>20</v>
+      </c>
+      <c r="K27">
+        <v>8156.700000000059</v>
+      </c>
+      <c r="L27">
+        <v>8814</v>
+      </c>
+      <c r="M27">
+        <v>-391</v>
+      </c>
+      <c r="N27">
+        <v>7765.700000000059</v>
+      </c>
+      <c r="O27">
+        <v>0.4076469253460404</v>
+      </c>
+      <c r="P27">
+        <v>88.58987668123135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28">
+        <v>2020</v>
+      </c>
+      <c r="E28">
+        <v>2023</v>
+      </c>
+      <c r="F28">
+        <v>70</v>
+      </c>
+      <c r="G28">
+        <v>1.1</v>
+      </c>
+      <c r="H28">
+        <v>100</v>
+      </c>
+      <c r="I28">
+        <v>200</v>
+      </c>
+      <c r="J28">
+        <v>60</v>
+      </c>
+      <c r="K28">
+        <v>7623.500000000244</v>
+      </c>
+      <c r="L28">
+        <v>24401</v>
+      </c>
+      <c r="M28">
+        <v>-468.1000000000004</v>
+      </c>
+      <c r="N28">
+        <v>7155.400000000243</v>
+      </c>
+      <c r="O28">
+        <v>0.314905126839064</v>
+      </c>
+      <c r="P28">
+        <v>81.62767086095259</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29">
+        <v>2020</v>
+      </c>
+      <c r="E29">
+        <v>2023</v>
+      </c>
+      <c r="F29">
+        <v>30</v>
+      </c>
+      <c r="G29">
+        <v>3.4</v>
+      </c>
+      <c r="H29">
+        <v>400</v>
+      </c>
+      <c r="I29">
+        <v>400</v>
+      </c>
+      <c r="J29">
+        <v>150</v>
+      </c>
+      <c r="K29">
+        <v>19830</v>
+      </c>
+      <c r="L29">
+        <v>7209</v>
+      </c>
+      <c r="M29">
+        <v>-800</v>
+      </c>
+      <c r="N29">
+        <v>19030</v>
+      </c>
+      <c r="O29">
+        <v>0.3492856152032182</v>
+      </c>
+      <c r="P29">
+        <v>80.50596497165581</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30">
+        <v>2020</v>
+      </c>
+      <c r="E30">
+        <v>2023</v>
+      </c>
+      <c r="F30">
+        <v>60</v>
+      </c>
+      <c r="G30">
+        <v>1.7</v>
+      </c>
+      <c r="H30">
+        <v>150</v>
+      </c>
+      <c r="I30">
+        <v>200</v>
+      </c>
+      <c r="J30">
+        <v>150</v>
+      </c>
+      <c r="K30">
+        <v>19657</v>
+      </c>
+      <c r="L30">
+        <v>15732</v>
+      </c>
+      <c r="M30">
+        <v>-756</v>
+      </c>
+      <c r="N30">
+        <v>18901</v>
+      </c>
+      <c r="O30">
+        <v>0.3226544622425629</v>
+      </c>
+      <c r="P30">
+        <v>79.96023352229462</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31">
+        <v>2020</v>
+      </c>
+      <c r="E31">
+        <v>2023</v>
+      </c>
+      <c r="F31">
+        <v>70</v>
+      </c>
+      <c r="G31">
+        <v>2.2</v>
+      </c>
+      <c r="H31">
+        <v>120</v>
+      </c>
+      <c r="I31">
+        <v>60</v>
+      </c>
+      <c r="J31">
+        <v>20</v>
+      </c>
+      <c r="K31">
+        <v>7429.700000000127</v>
+      </c>
+      <c r="L31">
+        <v>13320</v>
+      </c>
+      <c r="M31">
+        <v>-468.1000000000004</v>
+      </c>
+      <c r="N31">
+        <v>6961.600000000127</v>
+      </c>
+      <c r="O31">
+        <v>0.3894144144144144</v>
+      </c>
+      <c r="P31">
+        <v>79.41683112972002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32">
+        <v>2020</v>
+      </c>
+      <c r="E32">
+        <v>2023</v>
+      </c>
+      <c r="F32">
+        <v>100</v>
+      </c>
+      <c r="G32">
+        <v>2.5</v>
+      </c>
+      <c r="H32">
+        <v>120</v>
+      </c>
+      <c r="I32">
+        <v>160</v>
+      </c>
+      <c r="J32">
+        <v>60</v>
+      </c>
+      <c r="K32">
+        <v>7050.400000000171</v>
+      </c>
+      <c r="L32">
+        <v>11387</v>
+      </c>
+      <c r="M32">
+        <v>-468.1000000000004</v>
+      </c>
+      <c r="N32">
+        <v>6582.30000000017</v>
+      </c>
+      <c r="O32">
+        <v>0.3434618424519189</v>
+      </c>
+      <c r="P32">
+        <v>75.0898367537865</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33">
+        <v>2020</v>
+      </c>
+      <c r="E33">
+        <v>2023</v>
+      </c>
+      <c r="F33">
+        <v>10</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>180</v>
+      </c>
+      <c r="I33">
+        <v>140</v>
+      </c>
+      <c r="J33">
+        <v>60</v>
+      </c>
+      <c r="K33">
+        <v>5905.900000000338</v>
+      </c>
+      <c r="L33">
+        <v>25357</v>
+      </c>
+      <c r="M33">
+        <v>-440.6000000000004</v>
+      </c>
+      <c r="N33">
+        <v>5465.300000000338</v>
+      </c>
+      <c r="O33">
+        <v>0.3087904720589975</v>
+      </c>
+      <c r="P33">
+        <v>62.34727751857012</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34">
+        <v>2020</v>
+      </c>
+      <c r="E34">
+        <v>2023</v>
+      </c>
+      <c r="F34">
         <v>50</v>
       </c>
-      <c r="G27">
+      <c r="G34">
+        <v>2.8</v>
+      </c>
+      <c r="H34">
+        <v>450</v>
+      </c>
+      <c r="I34">
+        <v>450</v>
+      </c>
+      <c r="J34">
+        <v>100</v>
+      </c>
+      <c r="K34">
+        <v>17815.40000000017</v>
+      </c>
+      <c r="L34">
+        <v>9494</v>
+      </c>
+      <c r="M34">
+        <v>-811</v>
+      </c>
+      <c r="N34">
+        <v>17004.40000000017</v>
+      </c>
+      <c r="O34">
+        <v>0.349589214240573</v>
+      </c>
+      <c r="P34">
+        <v>59.41958591770828</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35">
+        <v>15</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35">
+        <v>2020</v>
+      </c>
+      <c r="E35">
+        <v>2023</v>
+      </c>
+      <c r="F35">
+        <v>60</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>150</v>
+      </c>
+      <c r="I35">
+        <v>350</v>
+      </c>
+      <c r="J35">
+        <v>150</v>
+      </c>
+      <c r="K35">
+        <v>14341</v>
+      </c>
+      <c r="L35">
+        <v>22460</v>
+      </c>
+      <c r="M35">
+        <v>-703</v>
+      </c>
+      <c r="N35">
+        <v>13638</v>
+      </c>
+      <c r="O35">
+        <v>0.3024042742653607</v>
+      </c>
+      <c r="P35">
+        <v>57.69523648362805</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36">
+        <v>2020</v>
+      </c>
+      <c r="E36">
+        <v>2023</v>
+      </c>
+      <c r="F36">
+        <v>50</v>
+      </c>
+      <c r="G36">
+        <v>3.2</v>
+      </c>
+      <c r="H36">
+        <v>250</v>
+      </c>
+      <c r="I36">
+        <v>500</v>
+      </c>
+      <c r="J36">
+        <v>100</v>
+      </c>
+      <c r="K36">
+        <v>13969</v>
+      </c>
+      <c r="L36">
+        <v>8082</v>
+      </c>
+      <c r="M36">
+        <v>-800</v>
+      </c>
+      <c r="N36">
+        <v>13169</v>
+      </c>
+      <c r="O36">
+        <v>0.3599356594902252</v>
+      </c>
+      <c r="P36">
+        <v>55.71114307471021</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37">
+        <v>2020</v>
+      </c>
+      <c r="E37">
+        <v>2023</v>
+      </c>
+      <c r="F37">
+        <v>90</v>
+      </c>
+      <c r="G37">
+        <v>2.600000000000001</v>
+      </c>
+      <c r="H37">
+        <v>160</v>
+      </c>
+      <c r="I37">
+        <v>40</v>
+      </c>
+      <c r="J37">
+        <v>20</v>
+      </c>
+      <c r="K37">
+        <v>5274.100000000168</v>
+      </c>
+      <c r="L37">
+        <v>10846</v>
+      </c>
+      <c r="M37">
+        <v>-499.1000000000004</v>
+      </c>
+      <c r="N37">
+        <v>4775.000000000167</v>
+      </c>
+      <c r="O37">
+        <v>0.3947077263507284</v>
+      </c>
+      <c r="P37">
+        <v>54.47244435825377</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38">
+        <v>2020</v>
+      </c>
+      <c r="E38">
+        <v>2023</v>
+      </c>
+      <c r="F38">
+        <v>90</v>
+      </c>
+      <c r="G38">
+        <v>2.8</v>
+      </c>
+      <c r="H38">
+        <v>140</v>
+      </c>
+      <c r="I38">
+        <v>120</v>
+      </c>
+      <c r="J38">
+        <v>20</v>
+      </c>
+      <c r="K38">
+        <v>4912.300000000119</v>
+      </c>
+      <c r="L38">
+        <v>9784</v>
+      </c>
+      <c r="M38">
+        <v>-347.3999999999996</v>
+      </c>
+      <c r="N38">
+        <v>4564.90000000012</v>
+      </c>
+      <c r="O38">
+        <v>0.402187244480785</v>
+      </c>
+      <c r="P38">
+        <v>52.07565680649014</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39">
+        <v>2020</v>
+      </c>
+      <c r="E39">
+        <v>2023</v>
+      </c>
+      <c r="F39">
+        <v>90</v>
+      </c>
+      <c r="G39">
+        <v>2.8</v>
+      </c>
+      <c r="H39">
+        <v>400</v>
+      </c>
+      <c r="I39">
+        <v>250</v>
+      </c>
+      <c r="J39">
+        <v>50</v>
+      </c>
+      <c r="K39">
+        <v>12284</v>
+      </c>
+      <c r="L39">
+        <v>9660</v>
+      </c>
+      <c r="M39">
+        <v>-800</v>
+      </c>
+      <c r="N39">
+        <v>11484</v>
+      </c>
+      <c r="O39">
+        <v>0.3842650103519669</v>
+      </c>
+      <c r="P39">
+        <v>48.58279042220154</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40">
+        <v>2020</v>
+      </c>
+      <c r="E40">
+        <v>2023</v>
+      </c>
+      <c r="F40">
+        <v>80</v>
+      </c>
+      <c r="G40">
+        <v>3</v>
+      </c>
+      <c r="H40">
+        <v>150</v>
+      </c>
+      <c r="I40">
+        <v>150</v>
+      </c>
+      <c r="J40">
+        <v>50</v>
+      </c>
+      <c r="K40">
+        <v>11664</v>
+      </c>
+      <c r="L40">
+        <v>8774</v>
+      </c>
+      <c r="M40">
+        <v>-800</v>
+      </c>
+      <c r="N40">
+        <v>10864</v>
+      </c>
+      <c r="O40">
+        <v>0.3880784134944153</v>
+      </c>
+      <c r="P40">
+        <v>45.95989508418648</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41">
+        <v>9</v>
+      </c>
+      <c r="B41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41">
+        <v>2020</v>
+      </c>
+      <c r="E41">
+        <v>2023</v>
+      </c>
+      <c r="F41">
+        <v>50</v>
+      </c>
+      <c r="G41">
+        <v>2.1</v>
+      </c>
+      <c r="H41">
+        <v>200</v>
+      </c>
+      <c r="I41">
+        <v>250</v>
+      </c>
+      <c r="J41">
+        <v>100</v>
+      </c>
+      <c r="K41">
+        <v>12748.60000000045</v>
+      </c>
+      <c r="L41">
+        <v>13803</v>
+      </c>
+      <c r="M41">
+        <v>-739.3999999999978</v>
+      </c>
+      <c r="N41">
+        <v>12009.20000000045</v>
+      </c>
+      <c r="O41">
+        <v>0.3375353184090415</v>
+      </c>
+      <c r="P41">
+        <v>41.96453219184223</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42">
+        <v>2020</v>
+      </c>
+      <c r="E42">
+        <v>2023</v>
+      </c>
+      <c r="F42">
+        <v>60</v>
+      </c>
+      <c r="G42">
+        <v>3.8</v>
+      </c>
+      <c r="H42">
+        <v>180</v>
+      </c>
+      <c r="I42">
+        <v>40</v>
+      </c>
+      <c r="J42">
+        <v>20</v>
+      </c>
+      <c r="K42">
+        <v>3639.70000000012</v>
+      </c>
+      <c r="L42">
+        <v>6114</v>
+      </c>
+      <c r="M42">
+        <v>-247.5999999999995</v>
+      </c>
+      <c r="N42">
+        <v>3392.10000000012</v>
+      </c>
+      <c r="O42">
+        <v>0.4108603205757279</v>
+      </c>
+      <c r="P42">
+        <v>38.69654000159846</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43">
+        <v>2020</v>
+      </c>
+      <c r="E43">
+        <v>2023</v>
+      </c>
+      <c r="F43">
+        <v>100</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43">
+        <v>200</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>3718.90000000007</v>
+      </c>
+      <c r="L43">
+        <v>15578</v>
+      </c>
+      <c r="M43">
+        <v>-458.7999999999993</v>
+      </c>
+      <c r="N43">
+        <v>3260.10000000007</v>
+      </c>
+      <c r="O43">
+        <v>0.3732186416741559</v>
+      </c>
+      <c r="P43">
+        <v>37.19070489054256</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44">
+        <v>2020</v>
+      </c>
+      <c r="E44">
+        <v>2023</v>
+      </c>
+      <c r="F44">
+        <v>10</v>
+      </c>
+      <c r="G44">
+        <v>2.8</v>
+      </c>
+      <c r="H44">
+        <v>500</v>
+      </c>
+      <c r="I44">
+        <v>150</v>
+      </c>
+      <c r="J44">
+        <v>100</v>
+      </c>
+      <c r="K44">
+        <v>11126.50000000017</v>
+      </c>
+      <c r="L44">
+        <v>9131</v>
+      </c>
+      <c r="M44">
+        <v>-748.5999999999985</v>
+      </c>
+      <c r="N44">
+        <v>10377.90000000018</v>
+      </c>
+      <c r="O44">
+        <v>0.349468842404994</v>
+      </c>
+      <c r="P44">
+        <v>36.26417401939436</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45">
+        <v>9</v>
+      </c>
+      <c r="B45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45">
+        <v>2020</v>
+      </c>
+      <c r="E45">
+        <v>2023</v>
+      </c>
+      <c r="F45">
+        <v>50</v>
+      </c>
+      <c r="G45">
+        <v>3.3</v>
+      </c>
+      <c r="H45">
+        <v>350</v>
+      </c>
+      <c r="I45">
+        <v>300</v>
+      </c>
+      <c r="J45">
+        <v>100</v>
+      </c>
+      <c r="K45">
+        <v>10978.10000000046</v>
+      </c>
+      <c r="L45">
+        <v>7425</v>
+      </c>
+      <c r="M45">
+        <v>-811</v>
+      </c>
+      <c r="N45">
+        <v>10167.10000000046</v>
+      </c>
+      <c r="O45">
+        <v>0.3554208754208754</v>
+      </c>
+      <c r="P45">
+        <v>35.52756180658849</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46">
+        <v>2020</v>
+      </c>
+      <c r="E46">
+        <v>2023</v>
+      </c>
+      <c r="F46">
+        <v>20</v>
+      </c>
+      <c r="G46">
+        <v>3.3</v>
+      </c>
+      <c r="H46">
+        <v>200</v>
+      </c>
+      <c r="I46">
+        <v>250</v>
+      </c>
+      <c r="J46">
+        <v>100</v>
+      </c>
+      <c r="K46">
+        <v>8615</v>
+      </c>
+      <c r="L46">
+        <v>7659</v>
+      </c>
+      <c r="M46">
+        <v>-756</v>
+      </c>
+      <c r="N46">
+        <v>7859</v>
+      </c>
+      <c r="O46">
+        <v>0.3581407494450973</v>
+      </c>
+      <c r="P46">
+        <v>33.24731364751671</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47">
+        <v>6</v>
+      </c>
+      <c r="B47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47">
+        <v>2020</v>
+      </c>
+      <c r="E47">
+        <v>2023</v>
+      </c>
+      <c r="F47">
+        <v>80</v>
+      </c>
+      <c r="G47">
+        <v>1.9</v>
+      </c>
+      <c r="H47">
+        <v>200</v>
+      </c>
+      <c r="I47">
+        <v>400</v>
+      </c>
+      <c r="J47">
+        <v>100</v>
+      </c>
+      <c r="K47">
+        <v>8546</v>
+      </c>
+      <c r="L47">
+        <v>16033</v>
+      </c>
+      <c r="M47">
+        <v>-756</v>
+      </c>
+      <c r="N47">
+        <v>7790</v>
+      </c>
+      <c r="O47">
+        <v>0.3369924530655523</v>
+      </c>
+      <c r="P47">
+        <v>32.95541077925375</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48">
+        <v>10</v>
+      </c>
+      <c r="B48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48">
+        <v>2020</v>
+      </c>
+      <c r="E48">
+        <v>2023</v>
+      </c>
+      <c r="F48">
+        <v>60</v>
+      </c>
+      <c r="G48">
+        <v>2.4</v>
+      </c>
+      <c r="H48">
+        <v>140</v>
+      </c>
+      <c r="I48">
+        <v>200</v>
+      </c>
+      <c r="J48">
+        <v>20</v>
+      </c>
+      <c r="K48">
+        <v>3262.900000000158</v>
+      </c>
+      <c r="L48">
+        <v>11838</v>
+      </c>
+      <c r="M48">
+        <v>-494.6000000000004</v>
+      </c>
+      <c r="N48">
+        <v>2768.300000000158</v>
+      </c>
+      <c r="O48">
+        <v>0.3945767866193614</v>
+      </c>
+      <c r="P48">
+        <v>31.58032831768738</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49">
+        <v>17</v>
+      </c>
+      <c r="B49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49">
+        <v>2020</v>
+      </c>
+      <c r="E49">
+        <v>2023</v>
+      </c>
+      <c r="F49">
+        <v>60</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+      <c r="H49">
+        <v>250</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>7958</v>
+      </c>
+      <c r="L49">
+        <v>15460</v>
+      </c>
+      <c r="M49">
+        <v>-756</v>
+      </c>
+      <c r="N49">
+        <v>7202</v>
+      </c>
+      <c r="O49">
+        <v>0.3711513583441138</v>
+      </c>
+      <c r="P49">
+        <v>30.46789068449107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50">
+        <v>10</v>
+      </c>
+      <c r="B50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50">
+        <v>2020</v>
+      </c>
+      <c r="E50">
+        <v>2023</v>
+      </c>
+      <c r="F50">
+        <v>20</v>
+      </c>
+      <c r="G50">
+        <v>1.8</v>
+      </c>
+      <c r="H50">
+        <v>150</v>
+      </c>
+      <c r="I50">
+        <v>300</v>
+      </c>
+      <c r="J50">
+        <v>250</v>
+      </c>
+      <c r="K50">
+        <v>8022</v>
+      </c>
+      <c r="L50">
+        <v>11076</v>
+      </c>
+      <c r="M50">
+        <v>-889</v>
+      </c>
+      <c r="N50">
+        <v>7133</v>
+      </c>
+      <c r="O50">
+        <v>0.2902672444925966</v>
+      </c>
+      <c r="P50">
+        <v>30.1759878162281</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51">
+        <v>2020</v>
+      </c>
+      <c r="E51">
+        <v>2023</v>
+      </c>
+      <c r="F51">
+        <v>100</v>
+      </c>
+      <c r="G51">
+        <v>2.8</v>
+      </c>
+      <c r="H51">
+        <v>150</v>
+      </c>
+      <c r="I51">
+        <v>300</v>
+      </c>
+      <c r="J51">
+        <v>100</v>
+      </c>
+      <c r="K51">
+        <v>9019.000000000477</v>
+      </c>
+      <c r="L51">
+        <v>9727</v>
+      </c>
+      <c r="M51">
+        <v>-811</v>
+      </c>
+      <c r="N51">
+        <v>8208.000000000477</v>
+      </c>
+      <c r="O51">
+        <v>0.3492340906754395</v>
+      </c>
+      <c r="P51">
+        <v>28.68175067703495</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52">
+        <v>11</v>
+      </c>
+      <c r="B52" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52">
+        <v>2020</v>
+      </c>
+      <c r="E52">
+        <v>2023</v>
+      </c>
+      <c r="F52">
+        <v>70</v>
+      </c>
+      <c r="G52">
+        <v>1.1</v>
+      </c>
+      <c r="H52">
+        <v>250</v>
+      </c>
+      <c r="I52">
+        <v>400</v>
+      </c>
+      <c r="J52">
+        <v>250</v>
+      </c>
+      <c r="K52">
+        <v>8304.299999999559</v>
+      </c>
+      <c r="L52">
+        <v>12113</v>
+      </c>
+      <c r="M52">
+        <v>-651</v>
+      </c>
+      <c r="N52">
+        <v>7653.299999999559</v>
+      </c>
+      <c r="O52">
+        <v>0.2980269132337158</v>
+      </c>
+      <c r="P52">
+        <v>26.7434262252103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53">
+        <v>3</v>
+      </c>
+      <c r="B53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53">
+        <v>2020</v>
+      </c>
+      <c r="E53">
+        <v>2023</v>
+      </c>
+      <c r="F53">
+        <v>60</v>
+      </c>
+      <c r="G53">
+        <v>0.7</v>
+      </c>
+      <c r="H53">
+        <v>400</v>
+      </c>
+      <c r="I53">
+        <v>400</v>
+      </c>
+      <c r="J53">
+        <v>50</v>
+      </c>
+      <c r="K53">
+        <v>6078</v>
+      </c>
+      <c r="L53">
+        <v>46006</v>
+      </c>
+      <c r="M53">
+        <v>-870</v>
+      </c>
+      <c r="N53">
+        <v>5208</v>
+      </c>
+      <c r="O53">
+        <v>0.3162848324131635</v>
+      </c>
+      <c r="P53">
+        <v>22.03232083932651</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54">
+        <v>3</v>
+      </c>
+      <c r="B54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54">
+        <v>2020</v>
+      </c>
+      <c r="E54">
+        <v>2023</v>
+      </c>
+      <c r="F54">
+        <v>10</v>
+      </c>
+      <c r="G54">
+        <v>3.2</v>
+      </c>
+      <c r="H54">
+        <v>350</v>
+      </c>
+      <c r="I54">
+        <v>450</v>
+      </c>
+      <c r="J54">
+        <v>100</v>
+      </c>
+      <c r="K54">
+        <v>7082.300000000236</v>
+      </c>
+      <c r="L54">
+        <v>7604</v>
+      </c>
+      <c r="M54">
+        <v>-811</v>
+      </c>
+      <c r="N54">
+        <v>6271.300000000236</v>
+      </c>
+      <c r="O54">
+        <v>0.3515255128879537</v>
+      </c>
+      <c r="P54">
+        <v>21.91421333100458</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55">
+        <v>12</v>
+      </c>
+      <c r="B55" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55">
+        <v>2020</v>
+      </c>
+      <c r="E55">
+        <v>2023</v>
+      </c>
+      <c r="F55">
+        <v>50</v>
+      </c>
+      <c r="G55">
+        <v>1.6</v>
+      </c>
+      <c r="H55">
+        <v>350</v>
+      </c>
+      <c r="I55">
+        <v>400</v>
+      </c>
+      <c r="J55">
+        <v>250</v>
+      </c>
+      <c r="K55">
+        <v>5078.499999999793</v>
+      </c>
+      <c r="L55">
+        <v>10307</v>
+      </c>
+      <c r="M55">
+        <v>-748.5999999999985</v>
+      </c>
+      <c r="N55">
+        <v>4329.899999999794</v>
+      </c>
+      <c r="O55">
+        <v>0.3081400989618706</v>
+      </c>
+      <c r="P55">
+        <v>15.1302524678948</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56">
+        <v>5</v>
+      </c>
+      <c r="B56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56">
+        <v>2020</v>
+      </c>
+      <c r="E56">
+        <v>2023</v>
+      </c>
+      <c r="F56">
+        <v>10</v>
+      </c>
+      <c r="G56">
+        <v>2.7</v>
+      </c>
+      <c r="H56">
+        <v>450</v>
+      </c>
+      <c r="I56">
+        <v>500</v>
+      </c>
+      <c r="J56">
+        <v>50</v>
+      </c>
+      <c r="K56">
+        <v>3689</v>
+      </c>
+      <c r="L56">
+        <v>10386</v>
+      </c>
+      <c r="M56">
+        <v>-589</v>
+      </c>
+      <c r="N56">
+        <v>3100</v>
+      </c>
+      <c r="O56">
+        <v>0.3755054881571346</v>
+      </c>
+      <c r="P56">
+        <v>13.1144766900753</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57">
+        <v>12</v>
+      </c>
+      <c r="B57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57">
+        <v>2020</v>
+      </c>
+      <c r="E57">
+        <v>2023</v>
+      </c>
+      <c r="F57">
+        <v>70</v>
+      </c>
+      <c r="G57">
+        <v>2.3</v>
+      </c>
+      <c r="H57">
+        <v>250</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>3001</v>
+      </c>
+      <c r="L57">
+        <v>12888</v>
+      </c>
+      <c r="M57">
+        <v>-756</v>
+      </c>
+      <c r="N57">
+        <v>2245</v>
+      </c>
+      <c r="O57">
+        <v>0.3706548727498448</v>
+      </c>
+      <c r="P57">
+        <v>9.497419409425502</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58">
+        <v>3</v>
+      </c>
+      <c r="B58" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58">
+        <v>2020</v>
+      </c>
+      <c r="E58">
+        <v>2023</v>
+      </c>
+      <c r="F58">
+        <v>90</v>
+      </c>
+      <c r="G58">
+        <v>1.5</v>
+      </c>
+      <c r="H58">
+        <v>150</v>
+      </c>
+      <c r="I58">
+        <v>300</v>
+      </c>
+      <c r="J58">
+        <v>50</v>
+      </c>
+      <c r="K58">
+        <v>2840</v>
+      </c>
+      <c r="L58">
+        <v>22060</v>
+      </c>
+      <c r="M58">
+        <v>-658</v>
+      </c>
+      <c r="N58">
+        <v>2182</v>
+      </c>
+      <c r="O58">
+        <v>0.349818676337262</v>
+      </c>
+      <c r="P58">
+        <v>9.230899399272358</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59">
+        <v>2020</v>
+      </c>
+      <c r="E59">
+        <v>2023</v>
+      </c>
+      <c r="F59">
+        <v>10</v>
+      </c>
+      <c r="G59">
+        <v>2.7</v>
+      </c>
+      <c r="H59">
+        <v>300</v>
+      </c>
+      <c r="I59">
+        <v>500</v>
+      </c>
+      <c r="J59">
+        <v>50</v>
+      </c>
+      <c r="K59">
+        <v>2260</v>
+      </c>
+      <c r="L59">
+        <v>10386</v>
+      </c>
+      <c r="M59">
+        <v>-589</v>
+      </c>
+      <c r="N59">
+        <v>1671</v>
+      </c>
+      <c r="O59">
+        <v>0.3754092046986328</v>
+      </c>
+      <c r="P59">
+        <v>7.069125983585751</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60">
+        <v>10</v>
+      </c>
+      <c r="B60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60">
+        <v>2020</v>
+      </c>
+      <c r="E60">
+        <v>2023</v>
+      </c>
+      <c r="F60">
+        <v>80</v>
+      </c>
+      <c r="G60">
+        <v>3.8</v>
+      </c>
+      <c r="H60">
+        <v>350</v>
+      </c>
+      <c r="I60">
+        <v>450</v>
+      </c>
+      <c r="J60">
+        <v>50</v>
+      </c>
+      <c r="K60">
+        <v>-631.3999999998778</v>
+      </c>
+      <c r="L60">
+        <v>6100</v>
+      </c>
+      <c r="M60">
+        <v>-673</v>
+      </c>
+      <c r="N60">
+        <v>-1304.399999999878</v>
+      </c>
+      <c r="O60">
+        <v>0.3926229508196721</v>
+      </c>
+      <c r="P60">
+        <v>-4.558050144142143</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61">
+        <v>13</v>
+      </c>
+      <c r="B61" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61">
+        <v>2020</v>
+      </c>
+      <c r="E61">
+        <v>2023</v>
+      </c>
+      <c r="F61">
+        <v>10</v>
+      </c>
+      <c r="G61">
+        <v>0.8</v>
+      </c>
+      <c r="H61">
+        <v>450</v>
+      </c>
+      <c r="I61">
+        <v>450</v>
+      </c>
+      <c r="J61">
+        <v>50</v>
+      </c>
+      <c r="K61">
+        <v>-123</v>
+      </c>
+      <c r="L61">
+        <v>42698</v>
+      </c>
+      <c r="M61">
+        <v>-1081</v>
+      </c>
+      <c r="N61">
+        <v>-1204</v>
+      </c>
+      <c r="O61">
+        <v>0.3174153356129092</v>
+      </c>
+      <c r="P61">
+        <v>-5.093493527371182</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62">
+        <v>4</v>
+      </c>
+      <c r="B62" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62">
+        <v>2020</v>
+      </c>
+      <c r="E62">
+        <v>2023</v>
+      </c>
+      <c r="F62">
+        <v>50</v>
+      </c>
+      <c r="G62">
+        <v>1.5</v>
+      </c>
+      <c r="H62">
+        <v>250</v>
+      </c>
+      <c r="I62">
+        <v>350</v>
+      </c>
+      <c r="J62">
+        <v>150</v>
+      </c>
+      <c r="K62">
+        <v>-3809.699999999739</v>
+      </c>
+      <c r="L62">
+        <v>16401</v>
+      </c>
+      <c r="M62">
+        <v>-748.5999999999985</v>
+      </c>
+      <c r="N62">
+        <v>-4558.299999999737</v>
+      </c>
+      <c r="O62">
+        <v>0.3132735808792147</v>
+      </c>
+      <c r="P62">
+        <v>-15.92836551061322</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63">
+        <v>3</v>
+      </c>
+      <c r="B63" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63">
+        <v>2020</v>
+      </c>
+      <c r="E63">
+        <v>2023</v>
+      </c>
+      <c r="F63">
+        <v>70</v>
+      </c>
+      <c r="G63">
+        <v>1.7</v>
+      </c>
+      <c r="H63">
+        <v>160</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>-983.7000000000498</v>
+      </c>
+      <c r="L63">
+        <v>18628</v>
+      </c>
+      <c r="M63">
+        <v>-458.7999999999993</v>
+      </c>
+      <c r="N63">
+        <v>-1442.500000000049</v>
+      </c>
+      <c r="O63">
+        <v>0.3728795361820915</v>
+      </c>
+      <c r="P63">
+        <v>-16.45581172498031</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64">
+        <v>6</v>
+      </c>
+      <c r="B64" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64">
+        <v>2020</v>
+      </c>
+      <c r="E64">
+        <v>2023</v>
+      </c>
+      <c r="F64">
+        <v>30</v>
+      </c>
+      <c r="G64">
+        <v>3</v>
+      </c>
+      <c r="H64">
+        <v>250</v>
+      </c>
+      <c r="I64">
+        <v>450</v>
+      </c>
+      <c r="J64">
+        <v>300</v>
+      </c>
+      <c r="K64">
+        <v>-3952.200000000252</v>
+      </c>
+      <c r="L64">
+        <v>5709</v>
+      </c>
+      <c r="M64">
+        <v>-2008</v>
+      </c>
+      <c r="N64">
+        <v>-5960.200000000252</v>
+      </c>
+      <c r="O64">
+        <v>0.3214223156419688</v>
+      </c>
+      <c r="P64">
+        <v>-20.82711627500743</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
+      <c r="A65">
+        <v>7</v>
+      </c>
+      <c r="B65" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65">
+        <v>2020</v>
+      </c>
+      <c r="E65">
+        <v>2023</v>
+      </c>
+      <c r="F65">
+        <v>40</v>
+      </c>
+      <c r="G65">
+        <v>3.4</v>
+      </c>
+      <c r="H65">
+        <v>200</v>
+      </c>
+      <c r="I65">
+        <v>450</v>
+      </c>
+      <c r="J65">
+        <v>50</v>
+      </c>
+      <c r="K65">
+        <v>-6025.999999999589</v>
+      </c>
+      <c r="L65">
+        <v>7036</v>
+      </c>
+      <c r="M65">
+        <v>-673</v>
+      </c>
+      <c r="N65">
+        <v>-6698.999999999589</v>
+      </c>
+      <c r="O65">
+        <v>0.3854462762933485</v>
+      </c>
+      <c r="P65">
+        <v>-23.40875338516498</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66">
+        <v>2020</v>
+      </c>
+      <c r="E66">
+        <v>2023</v>
+      </c>
+      <c r="F66">
+        <v>30</v>
+      </c>
+      <c r="G66">
+        <v>3.7</v>
+      </c>
+      <c r="H66">
+        <v>160</v>
+      </c>
+      <c r="I66">
+        <v>100</v>
+      </c>
+      <c r="J66">
+        <v>20</v>
+      </c>
+      <c r="K66">
+        <v>-1825.099999999856</v>
+      </c>
+      <c r="L66">
+        <v>6222</v>
+      </c>
+      <c r="M66">
+        <v>-338.7999999999993</v>
+      </c>
+      <c r="N66">
+        <v>-2163.899999999855</v>
+      </c>
+      <c r="O66">
+        <v>0.4082288653166184</v>
+      </c>
+      <c r="P66">
+        <v>-24.68542876373054</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
+      <c r="A67">
+        <v>3</v>
+      </c>
+      <c r="B67" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67">
+        <v>2020</v>
+      </c>
+      <c r="E67">
+        <v>2023</v>
+      </c>
+      <c r="F67">
+        <v>10</v>
+      </c>
+      <c r="G67">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="H67">
+        <v>250</v>
+      </c>
+      <c r="I67">
+        <v>350</v>
+      </c>
+      <c r="J67">
+        <v>150</v>
+      </c>
+      <c r="K67">
+        <v>-7971.299999999759</v>
+      </c>
+      <c r="L67">
+        <v>25838</v>
+      </c>
+      <c r="M67">
+        <v>-1050.5</v>
+      </c>
+      <c r="N67">
+        <v>-9021.799999999759</v>
+      </c>
+      <c r="O67">
+        <v>0.282026472637201</v>
+      </c>
+      <c r="P67">
+        <v>-31.5254651873845</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="A68">
+        <v>16</v>
+      </c>
+      <c r="B68" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68">
+        <v>2020</v>
+      </c>
+      <c r="E68">
+        <v>2023</v>
+      </c>
+      <c r="F68">
+        <v>60</v>
+      </c>
+      <c r="G68">
+        <v>1.8</v>
+      </c>
+      <c r="H68">
+        <v>100</v>
+      </c>
+      <c r="I68">
+        <v>300</v>
+      </c>
+      <c r="J68">
+        <v>200</v>
+      </c>
+      <c r="K68">
+        <v>-7373</v>
+      </c>
+      <c r="L68">
+        <v>13974</v>
+      </c>
+      <c r="M68">
+        <v>-756</v>
+      </c>
+      <c r="N68">
+        <v>-8129</v>
+      </c>
+      <c r="O68">
+        <v>0.2674252182624875</v>
+      </c>
+      <c r="P68">
+        <v>-34.38954226245875</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="A69">
+        <v>11</v>
+      </c>
+      <c r="B69" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69">
+        <v>2020</v>
+      </c>
+      <c r="E69">
+        <v>2023</v>
+      </c>
+      <c r="F69">
+        <v>70</v>
+      </c>
+      <c r="G69">
+        <v>2.9</v>
+      </c>
+      <c r="H69">
+        <v>400</v>
+      </c>
+      <c r="I69">
+        <v>250</v>
+      </c>
+      <c r="J69">
+        <v>200</v>
+      </c>
+      <c r="K69">
+        <v>-9366.499999999771</v>
+      </c>
+      <c r="L69">
+        <v>7774</v>
+      </c>
+      <c r="M69">
+        <v>-811</v>
+      </c>
+      <c r="N69">
+        <v>-10177.49999999977</v>
+      </c>
+      <c r="O69">
+        <v>0.335477231798302</v>
+      </c>
+      <c r="P69">
+        <v>-35.5639032060794</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
+      <c r="A70">
+        <v>7</v>
+      </c>
+      <c r="B70" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D70">
+        <v>2020</v>
+      </c>
+      <c r="E70">
+        <v>2023</v>
+      </c>
+      <c r="F70">
+        <v>90</v>
+      </c>
+      <c r="G70">
+        <v>2.1</v>
+      </c>
+      <c r="H70">
+        <v>300</v>
+      </c>
+      <c r="I70">
+        <v>350</v>
+      </c>
+      <c r="J70">
+        <v>300</v>
+      </c>
+      <c r="K70">
+        <v>-8332.000000000342</v>
+      </c>
+      <c r="L70">
+        <v>7537</v>
+      </c>
+      <c r="M70">
+        <v>-2008</v>
+      </c>
+      <c r="N70">
+        <v>-10340.00000000034</v>
+      </c>
+      <c r="O70">
+        <v>0.314448719649728</v>
+      </c>
+      <c r="P70">
+        <v>-36.13173757316446</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71" t="s">
+        <v>18</v>
+      </c>
+      <c r="C71" t="s">
+        <v>19</v>
+      </c>
+      <c r="D71">
+        <v>2020</v>
+      </c>
+      <c r="E71">
+        <v>2023</v>
+      </c>
+      <c r="F71">
+        <v>50</v>
+      </c>
+      <c r="G71">
+        <v>2.3</v>
+      </c>
+      <c r="H71">
+        <v>300</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>-11301.59999999965</v>
+      </c>
+      <c r="L71">
+        <v>12644</v>
+      </c>
+      <c r="M71">
+        <v>-688</v>
+      </c>
+      <c r="N71">
+        <v>-11989.59999999965</v>
+      </c>
+      <c r="O71">
+        <v>0.3634925656437836</v>
+      </c>
+      <c r="P71">
+        <v>-41.89604263125587</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
+      <c r="A72">
+        <v>10</v>
+      </c>
+      <c r="B72" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72">
+        <v>2020</v>
+      </c>
+      <c r="E72">
+        <v>2023</v>
+      </c>
+      <c r="F72">
+        <v>60</v>
+      </c>
+      <c r="G72">
+        <v>1.3</v>
+      </c>
+      <c r="H72">
+        <v>200</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>-10452</v>
+      </c>
+      <c r="L72">
+        <v>26172</v>
+      </c>
+      <c r="M72">
+        <v>-703</v>
+      </c>
+      <c r="N72">
+        <v>-11155</v>
+      </c>
+      <c r="O72">
+        <v>0.3664603392939019</v>
+      </c>
+      <c r="P72">
+        <v>-47.1909637025129</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
+      <c r="A73">
+        <v>4</v>
+      </c>
+      <c r="B73" t="s">
+        <v>16</v>
+      </c>
+      <c r="C73" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73">
+        <v>2020</v>
+      </c>
+      <c r="E73">
+        <v>2023</v>
+      </c>
+      <c r="F73">
+        <v>90</v>
+      </c>
+      <c r="G73">
+        <v>3.8</v>
+      </c>
+      <c r="H73">
+        <v>300</v>
+      </c>
+      <c r="I73">
+        <v>450</v>
+      </c>
+      <c r="J73">
+        <v>400</v>
+      </c>
+      <c r="K73">
+        <v>-10688</v>
+      </c>
+      <c r="L73">
+        <v>4107</v>
+      </c>
+      <c r="M73">
+        <v>-848</v>
+      </c>
+      <c r="N73">
+        <v>-11536</v>
+      </c>
+      <c r="O73">
+        <v>0.3316289262235208</v>
+      </c>
+      <c r="P73">
+        <v>-48.80277519248668</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
+      <c r="A74">
+        <v>18</v>
+      </c>
+      <c r="B74" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" t="s">
+        <v>19</v>
+      </c>
+      <c r="D74">
+        <v>2020</v>
+      </c>
+      <c r="E74">
+        <v>2023</v>
+      </c>
+      <c r="F74">
+        <v>50</v>
+      </c>
+      <c r="G74">
+        <v>1.1</v>
+      </c>
+      <c r="H74">
+        <v>150</v>
+      </c>
+      <c r="I74">
+        <v>500</v>
+      </c>
+      <c r="J74">
+        <v>250</v>
+      </c>
+      <c r="K74">
+        <v>-10946</v>
+      </c>
+      <c r="L74">
+        <v>14455</v>
+      </c>
+      <c r="M74">
+        <v>-778</v>
+      </c>
+      <c r="N74">
+        <v>-11724</v>
+      </c>
+      <c r="O74">
+        <v>0.2691110342442062</v>
+      </c>
+      <c r="P74">
+        <v>-49.59810474659447</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
+      <c r="A75">
+        <v>4</v>
+      </c>
+      <c r="B75" t="s">
+        <v>18</v>
+      </c>
+      <c r="C75" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75">
+        <v>2020</v>
+      </c>
+      <c r="E75">
+        <v>2023</v>
+      </c>
+      <c r="F75">
+        <v>30</v>
+      </c>
+      <c r="G75">
+        <v>1.7</v>
+      </c>
+      <c r="H75">
+        <v>250</v>
+      </c>
+      <c r="I75">
+        <v>450</v>
+      </c>
+      <c r="J75">
+        <v>50</v>
+      </c>
+      <c r="K75">
+        <v>-18744.69999999934</v>
+      </c>
+      <c r="L75">
+        <v>18579</v>
+      </c>
+      <c r="M75">
+        <v>-645.2999999999993</v>
+      </c>
+      <c r="N75">
+        <v>-19389.99999999934</v>
+      </c>
+      <c r="O75">
+        <v>0.3544862479143119</v>
+      </c>
+      <c r="P75">
+        <v>-67.75574386301858</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
+      <c r="A76">
+        <v>10</v>
+      </c>
+      <c r="B76" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" t="s">
+        <v>19</v>
+      </c>
+      <c r="D76">
+        <v>2020</v>
+      </c>
+      <c r="E76">
+        <v>2023</v>
+      </c>
+      <c r="F76">
+        <v>30</v>
+      </c>
+      <c r="G76">
+        <v>2.1</v>
+      </c>
+      <c r="H76">
+        <v>150</v>
+      </c>
+      <c r="I76">
+        <v>450</v>
+      </c>
+      <c r="J76">
+        <v>350</v>
+      </c>
+      <c r="K76">
+        <v>-15640</v>
+      </c>
+      <c r="L76">
+        <v>8165</v>
+      </c>
+      <c r="M76">
+        <v>-756</v>
+      </c>
+      <c r="N76">
+        <v>-16396</v>
+      </c>
+      <c r="O76">
+        <v>0.2486221677893448</v>
+      </c>
+      <c r="P76">
+        <v>-69.36289026144344</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16">
+      <c r="A77">
+        <v>5</v>
+      </c>
+      <c r="B77" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77">
+        <v>2020</v>
+      </c>
+      <c r="E77">
+        <v>2023</v>
+      </c>
+      <c r="F77">
+        <v>20</v>
+      </c>
+      <c r="G77">
+        <v>2.5</v>
+      </c>
+      <c r="H77">
+        <v>450</v>
+      </c>
+      <c r="I77">
+        <v>500</v>
+      </c>
+      <c r="J77">
+        <v>450</v>
+      </c>
+      <c r="K77">
+        <v>-18705.50000000012</v>
+      </c>
+      <c r="L77">
+        <v>4192</v>
+      </c>
+      <c r="M77">
+        <v>-1608</v>
+      </c>
+      <c r="N77">
+        <v>-20313.50000000012</v>
+      </c>
+      <c r="O77">
+        <v>0.3153625954198473</v>
+      </c>
+      <c r="P77">
+        <v>-70.98279025072112</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
+      <c r="A78">
+        <v>12</v>
+      </c>
+      <c r="B78" t="s">
+        <v>16</v>
+      </c>
+      <c r="C78" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78">
+        <v>2020</v>
+      </c>
+      <c r="E78">
+        <v>2023</v>
+      </c>
+      <c r="F78">
+        <v>80</v>
+      </c>
+      <c r="G78">
+        <v>1.4</v>
+      </c>
+      <c r="H78">
+        <v>100</v>
+      </c>
+      <c r="I78">
+        <v>400</v>
+      </c>
+      <c r="J78">
+        <v>100</v>
+      </c>
+      <c r="K78">
+        <v>-18922</v>
+      </c>
+      <c r="L78">
+        <v>22136</v>
+      </c>
+      <c r="M78">
+        <v>-703</v>
+      </c>
+      <c r="N78">
+        <v>-19625</v>
+      </c>
+      <c r="O78">
+        <v>0.3261203469461511</v>
+      </c>
+      <c r="P78">
+        <v>-83.02309840087993</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16">
+      <c r="A79">
+        <v>1</v>
+      </c>
+      <c r="B79" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79">
+        <v>2020</v>
+      </c>
+      <c r="E79">
+        <v>2023</v>
+      </c>
+      <c r="F79">
+        <v>50</v>
+      </c>
+      <c r="G79">
+        <v>1.1</v>
+      </c>
+      <c r="H79">
+        <v>450</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>-22116</v>
+      </c>
+      <c r="L79">
+        <v>31562</v>
+      </c>
+      <c r="M79">
+        <v>-644</v>
+      </c>
+      <c r="N79">
+        <v>-22760</v>
+      </c>
+      <c r="O79">
+        <v>0.3624928711741968</v>
+      </c>
+      <c r="P79">
+        <v>-96.28564176326255</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16">
+      <c r="A80">
+        <v>2</v>
+      </c>
+      <c r="B80" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80" t="s">
+        <v>19</v>
+      </c>
+      <c r="D80">
+        <v>2020</v>
+      </c>
+      <c r="E80">
+        <v>2023</v>
+      </c>
+      <c r="F80">
+        <v>50</v>
+      </c>
+      <c r="G80">
+        <v>3.5</v>
+      </c>
+      <c r="H80">
+        <v>100</v>
+      </c>
+      <c r="I80">
+        <v>500</v>
+      </c>
+      <c r="J80">
+        <v>250</v>
+      </c>
+      <c r="K80">
+        <v>-23303</v>
+      </c>
+      <c r="L80">
+        <v>6740</v>
+      </c>
+      <c r="M80">
+        <v>-800</v>
+      </c>
+      <c r="N80">
+        <v>-24103</v>
+      </c>
+      <c r="O80">
+        <v>0.2514836795252225</v>
+      </c>
+      <c r="P80">
+        <v>-101.9671715035113</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16">
+      <c r="A81">
+        <v>13</v>
+      </c>
+      <c r="B81" t="s">
+        <v>18</v>
+      </c>
+      <c r="C81" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81">
+        <v>2020</v>
+      </c>
+      <c r="E81">
+        <v>2023</v>
+      </c>
+      <c r="F81">
+        <v>60</v>
+      </c>
+      <c r="G81">
+        <v>3.600000000000001</v>
+      </c>
+      <c r="H81">
+        <v>150</v>
+      </c>
+      <c r="I81">
+        <v>300</v>
+      </c>
+      <c r="J81">
+        <v>250</v>
+      </c>
+      <c r="K81">
+        <v>-29072.29999999985</v>
+      </c>
+      <c r="L81">
+        <v>5637</v>
+      </c>
+      <c r="M81">
+        <v>-811</v>
+      </c>
+      <c r="N81">
+        <v>-29883.29999999985</v>
+      </c>
+      <c r="O81">
+        <v>0.2971438708532907</v>
+      </c>
+      <c r="P81">
+        <v>-104.4231676421765</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16">
+      <c r="A82">
+        <v>8</v>
+      </c>
+      <c r="B82" t="s">
+        <v>18</v>
+      </c>
+      <c r="C82" t="s">
+        <v>19</v>
+      </c>
+      <c r="D82">
+        <v>2020</v>
+      </c>
+      <c r="E82">
+        <v>2023</v>
+      </c>
+      <c r="F82">
+        <v>100</v>
+      </c>
+      <c r="G82">
+        <v>0.5</v>
+      </c>
+      <c r="H82">
+        <v>400</v>
+      </c>
+      <c r="I82">
+        <v>100</v>
+      </c>
+      <c r="J82">
+        <v>50</v>
+      </c>
+      <c r="K82">
+        <v>-35815.29999999968</v>
+      </c>
+      <c r="L82">
+        <v>53283</v>
+      </c>
+      <c r="M82">
+        <v>-735</v>
+      </c>
+      <c r="N82">
+        <v>-36550.29999999968</v>
+      </c>
+      <c r="O82">
+        <v>0.3012030103410093</v>
+      </c>
+      <c r="P82">
+        <v>-127.7201013365936</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16">
+      <c r="A83">
+        <v>2</v>
+      </c>
+      <c r="B83" t="s">
+        <v>16</v>
+      </c>
+      <c r="C83" t="s">
+        <v>19</v>
+      </c>
+      <c r="D83">
+        <v>2020</v>
+      </c>
+      <c r="E83">
+        <v>2023</v>
+      </c>
+      <c r="F83">
+        <v>10</v>
+      </c>
+      <c r="G83">
+        <v>3.100000000000001</v>
+      </c>
+      <c r="H83">
+        <v>50</v>
+      </c>
+      <c r="I83">
+        <v>500</v>
+      </c>
+      <c r="J83">
+        <v>50</v>
+      </c>
+      <c r="K83">
+        <v>-35124</v>
+      </c>
+      <c r="L83">
+        <v>8490</v>
+      </c>
+      <c r="M83">
+        <v>-612</v>
+      </c>
+      <c r="N83">
+        <v>-35736</v>
+      </c>
+      <c r="O83">
+        <v>0.3387514723203769</v>
+      </c>
+      <c r="P83">
+        <v>-151.1803029021068</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16">
+      <c r="A84">
+        <v>6</v>
+      </c>
+      <c r="B84" t="s">
+        <v>18</v>
+      </c>
+      <c r="C84" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84">
+        <v>2020</v>
+      </c>
+      <c r="E84">
+        <v>2023</v>
+      </c>
+      <c r="F84">
+        <v>90</v>
+      </c>
+      <c r="G84">
+        <v>2.1</v>
+      </c>
+      <c r="H84">
+        <v>300</v>
+      </c>
+      <c r="I84">
+        <v>450</v>
+      </c>
+      <c r="J84">
+        <v>350</v>
+      </c>
+      <c r="K84">
+        <v>-43023.10000000019</v>
+      </c>
+      <c r="L84">
+        <v>6528</v>
+      </c>
+      <c r="M84">
+        <v>-2008</v>
+      </c>
+      <c r="N84">
+        <v>-45031.10000000019</v>
+      </c>
+      <c r="O84">
+        <v>0.3059129901960784</v>
+      </c>
+      <c r="P84">
+        <v>-157.3551148772611</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16">
+      <c r="A85">
+        <v>0</v>
+      </c>
+      <c r="B85" t="s">
+        <v>16</v>
+      </c>
+      <c r="C85" t="s">
+        <v>19</v>
+      </c>
+      <c r="D85">
+        <v>2020</v>
+      </c>
+      <c r="E85">
+        <v>2023</v>
+      </c>
+      <c r="F85">
+        <v>10</v>
+      </c>
+      <c r="G85">
+        <v>1.2</v>
+      </c>
+      <c r="H85">
+        <v>100</v>
+      </c>
+      <c r="I85">
+        <v>500</v>
+      </c>
+      <c r="J85">
+        <v>100</v>
+      </c>
+      <c r="K85">
+        <v>-38187</v>
+      </c>
+      <c r="L85">
+        <v>25442</v>
+      </c>
+      <c r="M85">
+        <v>-703</v>
+      </c>
+      <c r="N85">
+        <v>-38890</v>
+      </c>
+      <c r="O85">
+        <v>0.3160128920682336</v>
+      </c>
+      <c r="P85">
+        <v>-164.5232253151705</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16">
+      <c r="A86">
+        <v>2</v>
+      </c>
+      <c r="B86" t="s">
+        <v>18</v>
+      </c>
+      <c r="C86" t="s">
+        <v>19</v>
+      </c>
+      <c r="D86">
+        <v>2020</v>
+      </c>
+      <c r="E86">
+        <v>2023</v>
+      </c>
+      <c r="F86">
+        <v>30</v>
+      </c>
+      <c r="G86">
+        <v>2</v>
+      </c>
+      <c r="H86">
+        <v>100</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>-45137.59999999935</v>
+      </c>
+      <c r="L86">
+        <v>15058</v>
+      </c>
+      <c r="M86">
+        <v>-2008</v>
+      </c>
+      <c r="N86">
+        <v>-47145.59999999935</v>
+      </c>
+      <c r="O86">
+        <v>0.3588790011953779</v>
+      </c>
+      <c r="P86">
+        <v>-164.7439503800099</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16">
+      <c r="A87">
+        <v>2</v>
+      </c>
+      <c r="B87" t="s">
+        <v>16</v>
+      </c>
+      <c r="C87" t="s">
+        <v>19</v>
+      </c>
+      <c r="D87">
+        <v>2020</v>
+      </c>
+      <c r="E87">
+        <v>2023</v>
+      </c>
+      <c r="F87">
+        <v>40</v>
+      </c>
+      <c r="G87">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="H87">
+        <v>400</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>-45139</v>
+      </c>
+      <c r="L87">
+        <v>53355</v>
+      </c>
+      <c r="M87">
+        <v>-1081</v>
+      </c>
+      <c r="N87">
+        <v>-46220</v>
+      </c>
+      <c r="O87">
+        <v>0.3617842751382251</v>
+      </c>
+      <c r="P87">
+        <v>-195.5326169726711</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16">
+      <c r="A88">
+        <v>9</v>
+      </c>
+      <c r="B88" t="s">
+        <v>16</v>
+      </c>
+      <c r="C88" t="s">
+        <v>19</v>
+      </c>
+      <c r="D88">
+        <v>2020</v>
+      </c>
+      <c r="E88">
+        <v>2023</v>
+      </c>
+      <c r="F88">
+        <v>20</v>
+      </c>
+      <c r="G88">
+        <v>0.5</v>
+      </c>
+      <c r="H88">
+        <v>350</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>-45971</v>
+      </c>
+      <c r="L88">
+        <v>60752</v>
+      </c>
+      <c r="M88">
+        <v>-1081</v>
+      </c>
+      <c r="N88">
+        <v>-47052</v>
+      </c>
+      <c r="O88">
+        <v>0.3621938372399263</v>
+      </c>
+      <c r="P88">
+        <v>-199.0523732972333</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16">
+      <c r="A89">
+        <v>13</v>
+      </c>
+      <c r="B89" t="s">
+        <v>18</v>
+      </c>
+      <c r="C89" t="s">
+        <v>19</v>
+      </c>
+      <c r="D89">
+        <v>2020</v>
+      </c>
+      <c r="E89">
+        <v>2023</v>
+      </c>
+      <c r="F89">
+        <v>50</v>
+      </c>
+      <c r="G89">
+        <v>3.8</v>
+      </c>
+      <c r="H89">
+        <v>50</v>
+      </c>
+      <c r="I89">
+        <v>400</v>
+      </c>
+      <c r="J89">
+        <v>350</v>
+      </c>
+      <c r="K89">
+        <v>-57567.50000000036</v>
+      </c>
+      <c r="L89">
+        <v>5691</v>
+      </c>
+      <c r="M89">
+        <v>-631.7000000000007</v>
+      </c>
+      <c r="N89">
+        <v>-58199.20000000036</v>
+      </c>
+      <c r="O89">
+        <v>0.1156211562115621</v>
+      </c>
+      <c r="P89">
+        <v>-203.369267056872</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16">
+      <c r="A90">
+        <v>14</v>
+      </c>
+      <c r="B90" t="s">
+        <v>16</v>
+      </c>
+      <c r="C90" t="s">
+        <v>19</v>
+      </c>
+      <c r="D90">
+        <v>2020</v>
+      </c>
+      <c r="E90">
+        <v>2023</v>
+      </c>
+      <c r="F90">
+        <v>20</v>
+      </c>
+      <c r="G90">
+        <v>0.4</v>
+      </c>
+      <c r="H90">
+        <v>300</v>
+      </c>
+      <c r="I90">
+        <v>450</v>
+      </c>
+      <c r="J90">
+        <v>400</v>
+      </c>
+      <c r="K90">
+        <v>-49115</v>
+      </c>
+      <c r="L90">
+        <v>8451</v>
+      </c>
+      <c r="M90">
+        <v>-1062</v>
+      </c>
+      <c r="N90">
+        <v>-50177</v>
+      </c>
+      <c r="O90">
+        <v>0.2536977872441131</v>
+      </c>
+      <c r="P90">
+        <v>-212.2726118960995</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16">
+      <c r="A91">
+        <v>19</v>
+      </c>
+      <c r="B91" t="s">
+        <v>16</v>
+      </c>
+      <c r="C91" t="s">
+        <v>19</v>
+      </c>
+      <c r="D91">
+        <v>2020</v>
+      </c>
+      <c r="E91">
+        <v>2023</v>
+      </c>
+      <c r="F91">
+        <v>50</v>
+      </c>
+      <c r="G91">
+        <v>3</v>
+      </c>
+      <c r="H91">
+        <v>200</v>
+      </c>
+      <c r="I91">
+        <v>500</v>
+      </c>
+      <c r="J91">
+        <v>450</v>
+      </c>
+      <c r="K91">
+        <v>-50341</v>
+      </c>
+      <c r="L91">
+        <v>5137</v>
+      </c>
+      <c r="M91">
+        <v>-803</v>
+      </c>
+      <c r="N91">
+        <v>-51144</v>
+      </c>
+      <c r="O91">
+        <v>0.2581273116605022</v>
+      </c>
+      <c r="P91">
+        <v>-216.3634825281327</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16">
+      <c r="A92">
+        <v>8</v>
+      </c>
+      <c r="B92" t="s">
+        <v>17</v>
+      </c>
+      <c r="C92" t="s">
+        <v>19</v>
+      </c>
+      <c r="D92">
+        <v>2020</v>
+      </c>
+      <c r="E92">
+        <v>2023</v>
+      </c>
+      <c r="F92">
+        <v>30</v>
+      </c>
+      <c r="G92">
+        <v>0.7</v>
+      </c>
+      <c r="H92">
+        <v>60</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>-18761.29999999958</v>
+      </c>
+      <c r="L92">
+        <v>46134</v>
+      </c>
+      <c r="M92">
+        <v>-440.6000000000004</v>
+      </c>
+      <c r="N92">
+        <v>-19201.89999999958</v>
+      </c>
+      <c r="O92">
+        <v>0.3815624051675554</v>
+      </c>
+      <c r="P92">
+        <v>-219.0522365073704</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16">
+      <c r="A93">
+        <v>11</v>
+      </c>
+      <c r="B93" t="s">
+        <v>16</v>
+      </c>
+      <c r="C93" t="s">
+        <v>19</v>
+      </c>
+      <c r="D93">
+        <v>2020</v>
+      </c>
+      <c r="E93">
+        <v>2023</v>
+      </c>
+      <c r="F93">
+        <v>80</v>
+      </c>
+      <c r="G93">
+        <v>0.2</v>
+      </c>
+      <c r="H93">
+        <v>250</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>-58281</v>
+      </c>
+      <c r="L93">
+        <v>85698</v>
+      </c>
+      <c r="M93">
+        <v>-1062</v>
+      </c>
+      <c r="N93">
+        <v>-59343</v>
+      </c>
+      <c r="O93">
+        <v>0.3562276832598193</v>
+      </c>
+      <c r="P93">
+        <v>-251.049158135206</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16">
+      <c r="A94">
+        <v>5</v>
+      </c>
+      <c r="B94" t="s">
+        <v>18</v>
+      </c>
+      <c r="C94" t="s">
+        <v>19</v>
+      </c>
+      <c r="D94">
+        <v>2020</v>
+      </c>
+      <c r="E94">
+        <v>2023</v>
+      </c>
+      <c r="F94">
+        <v>50</v>
+      </c>
+      <c r="G94">
+        <v>2.7</v>
+      </c>
+      <c r="H94">
+        <v>100</v>
+      </c>
+      <c r="I94">
+        <v>500</v>
+      </c>
+      <c r="J94">
+        <v>350</v>
+      </c>
+      <c r="K94">
+        <v>-70135.40000000005</v>
+      </c>
+      <c r="L94">
+        <v>7516</v>
+      </c>
+      <c r="M94">
+        <v>-1790.5</v>
+      </c>
+      <c r="N94">
+        <v>-71925.90000000005</v>
+      </c>
+      <c r="O94">
+        <v>0.1930548163916977</v>
+      </c>
+      <c r="P94">
+        <v>-251.3353717131128</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16">
+      <c r="A95">
+        <v>12</v>
+      </c>
+      <c r="B95" t="s">
+        <v>18</v>
+      </c>
+      <c r="C95" t="s">
+        <v>19</v>
+      </c>
+      <c r="D95">
+        <v>2020</v>
+      </c>
+      <c r="E95">
+        <v>2023</v>
+      </c>
+      <c r="F95">
+        <v>80</v>
+      </c>
+      <c r="G95">
+        <v>3</v>
+      </c>
+      <c r="H95">
+        <v>50</v>
+      </c>
+      <c r="I95">
+        <v>500</v>
+      </c>
+      <c r="J95">
+        <v>100</v>
+      </c>
+      <c r="K95">
+        <v>-77413.50000000003</v>
+      </c>
+      <c r="L95">
+        <v>8698</v>
+      </c>
+      <c r="M95">
+        <v>-608.5999999999985</v>
+      </c>
+      <c r="N95">
+        <v>-78022.10000000003</v>
+      </c>
+      <c r="O95">
+        <v>0.2585651873994022</v>
+      </c>
+      <c r="P95">
+        <v>-272.6377216738011</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16">
+      <c r="A96">
+        <v>8</v>
+      </c>
+      <c r="B96" t="s">
+        <v>18</v>
+      </c>
+      <c r="C96" t="s">
+        <v>19</v>
+      </c>
+      <c r="D96">
+        <v>2020</v>
+      </c>
+      <c r="E96">
+        <v>2023</v>
+      </c>
+      <c r="F96">
+        <v>60</v>
+      </c>
+      <c r="G96">
+        <v>2.600000000000001</v>
+      </c>
+      <c r="H96">
+        <v>100</v>
+      </c>
+      <c r="I96">
+        <v>250</v>
+      </c>
+      <c r="J96">
+        <v>200</v>
+      </c>
+      <c r="K96">
+        <v>-80122.0999999997</v>
+      </c>
+      <c r="L96">
+        <v>9540</v>
+      </c>
+      <c r="M96">
+        <v>-737.8999999999978</v>
+      </c>
+      <c r="N96">
+        <v>-80859.99999999969</v>
+      </c>
+      <c r="O96">
+        <v>0.2674004192872118</v>
+      </c>
+      <c r="P96">
+        <v>-282.5543810605388</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16">
+      <c r="A97">
+        <v>9</v>
+      </c>
+      <c r="B97" t="s">
+        <v>16</v>
+      </c>
+      <c r="C97" t="s">
+        <v>19</v>
+      </c>
+      <c r="D97">
+        <v>2020</v>
+      </c>
+      <c r="E97">
+        <v>2023</v>
+      </c>
+      <c r="F97">
+        <v>90</v>
+      </c>
+      <c r="G97">
+        <v>2.5</v>
+      </c>
+      <c r="H97">
+        <v>50</v>
+      </c>
+      <c r="I97">
+        <v>250</v>
+      </c>
+      <c r="J97">
+        <v>200</v>
+      </c>
+      <c r="K97">
+        <v>-67743</v>
+      </c>
+      <c r="L97">
+        <v>11137</v>
+      </c>
+      <c r="M97">
+        <v>-756</v>
+      </c>
+      <c r="N97">
+        <v>-68499</v>
+      </c>
+      <c r="O97">
+        <v>0.1811978091047859</v>
+      </c>
+      <c r="P97">
+        <v>-289.7833996107962</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16">
+      <c r="A98">
+        <v>3</v>
+      </c>
+      <c r="B98" t="s">
+        <v>16</v>
+      </c>
+      <c r="C98" t="s">
+        <v>19</v>
+      </c>
+      <c r="D98">
+        <v>2020</v>
+      </c>
+      <c r="E98">
+        <v>2023</v>
+      </c>
+      <c r="F98">
+        <v>20</v>
+      </c>
+      <c r="G98">
+        <v>2.5</v>
+      </c>
+      <c r="H98">
+        <v>50</v>
+      </c>
+      <c r="I98">
+        <v>450</v>
+      </c>
+      <c r="J98">
+        <v>200</v>
+      </c>
+      <c r="K98">
+        <v>-70563</v>
+      </c>
+      <c r="L98">
+        <v>11190</v>
+      </c>
+      <c r="M98">
+        <v>-756</v>
+      </c>
+      <c r="N98">
+        <v>-71319</v>
+      </c>
+      <c r="O98">
+        <v>0.1814119749776586</v>
+      </c>
+      <c r="P98">
+        <v>-301.7133429224131</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16">
+      <c r="A99">
+        <v>10</v>
+      </c>
+      <c r="B99" t="s">
+        <v>18</v>
+      </c>
+      <c r="C99" t="s">
+        <v>19</v>
+      </c>
+      <c r="D99">
+        <v>2020</v>
+      </c>
+      <c r="E99">
+        <v>2023</v>
+      </c>
+      <c r="F99">
+        <v>90</v>
+      </c>
+      <c r="G99">
+        <v>3.2</v>
+      </c>
+      <c r="H99">
+        <v>50</v>
+      </c>
+      <c r="I99">
+        <v>300</v>
+      </c>
+      <c r="J99">
+        <v>150</v>
+      </c>
+      <c r="K99">
+        <v>-87770.69999999975</v>
+      </c>
+      <c r="L99">
+        <v>7966</v>
+      </c>
+      <c r="M99">
+        <v>-619.0999999999985</v>
+      </c>
+      <c r="N99">
+        <v>-88389.79999999976</v>
+      </c>
+      <c r="O99">
+        <v>0.2043685664072307</v>
+      </c>
+      <c r="P99">
+        <v>-308.8662531667677</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16">
+      <c r="A100">
+        <v>9</v>
+      </c>
+      <c r="B100" t="s">
+        <v>17</v>
+      </c>
+      <c r="C100" t="s">
+        <v>19</v>
+      </c>
+      <c r="D100">
+        <v>2020</v>
+      </c>
+      <c r="E100">
+        <v>2023</v>
+      </c>
+      <c r="F100">
+        <v>30</v>
+      </c>
+      <c r="G100">
+        <v>3.4</v>
+      </c>
+      <c r="H100">
+        <v>40</v>
+      </c>
+      <c r="I100">
+        <v>200</v>
+      </c>
+      <c r="J100">
+        <v>120</v>
+      </c>
+      <c r="K100">
+        <v>-28948.4999999999</v>
+      </c>
+      <c r="L100">
+        <v>6791</v>
+      </c>
+      <c r="M100">
+        <v>-390.7000000000007</v>
+      </c>
+      <c r="N100">
+        <v>-29339.1999999999</v>
+      </c>
+      <c r="O100">
+        <v>0.2148431747901635</v>
+      </c>
+      <c r="P100">
+        <v>-334.6969506838989</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16">
+      <c r="A101">
+        <v>4</v>
+      </c>
+      <c r="B101" t="s">
+        <v>17</v>
+      </c>
+      <c r="C101" t="s">
+        <v>19</v>
+      </c>
+      <c r="D101">
+        <v>2020</v>
+      </c>
+      <c r="E101">
+        <v>2023</v>
+      </c>
+      <c r="F101">
+        <v>70</v>
+      </c>
+      <c r="G101">
+        <v>0.4</v>
+      </c>
+      <c r="H101">
+        <v>80</v>
+      </c>
+      <c r="I101">
+        <v>100</v>
+      </c>
+      <c r="J101">
+        <v>40</v>
+      </c>
+      <c r="K101">
+        <v>-29366.79999999985</v>
+      </c>
+      <c r="L101">
+        <v>50404</v>
+      </c>
+      <c r="M101">
+        <v>-440.6000000000004</v>
+      </c>
+      <c r="N101">
+        <v>-29807.39999999985</v>
+      </c>
+      <c r="O101">
+        <v>0.2806523291802238</v>
+      </c>
+      <c r="P101">
+        <v>-340.0381021914447</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16">
+      <c r="A102">
+        <v>5</v>
+      </c>
+      <c r="B102" t="s">
+        <v>16</v>
+      </c>
+      <c r="C102" t="s">
+        <v>19</v>
+      </c>
+      <c r="D102">
+        <v>2020</v>
+      </c>
+      <c r="E102">
+        <v>2023</v>
+      </c>
+      <c r="F102">
+        <v>20</v>
+      </c>
+      <c r="G102">
+        <v>2.4</v>
+      </c>
+      <c r="H102">
+        <v>50</v>
+      </c>
+      <c r="I102">
+        <v>450</v>
+      </c>
+      <c r="J102">
+        <v>100</v>
+      </c>
+      <c r="K102">
+        <v>-84628</v>
+      </c>
+      <c r="L102">
+        <v>12105</v>
+      </c>
+      <c r="M102">
+        <v>-756</v>
+      </c>
+      <c r="N102">
+        <v>-85384</v>
+      </c>
+      <c r="O102">
+        <v>0.2682362660057827</v>
+      </c>
+      <c r="P102">
+        <v>-361.2149928081902</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16">
+      <c r="A103">
+        <v>8</v>
+      </c>
+      <c r="B103" t="s">
+        <v>17</v>
+      </c>
+      <c r="C103" t="s">
+        <v>19</v>
+      </c>
+      <c r="D103">
+        <v>2020</v>
+      </c>
+      <c r="E103">
+        <v>2023</v>
+      </c>
+      <c r="F103">
+        <v>40</v>
+      </c>
+      <c r="G103">
+        <v>0.3</v>
+      </c>
+      <c r="H103">
+        <v>80</v>
+      </c>
+      <c r="I103">
+        <v>160</v>
+      </c>
+      <c r="J103">
+        <v>60</v>
+      </c>
+      <c r="K103">
+        <v>-35524.29999999974</v>
+      </c>
+      <c r="L103">
+        <v>41673</v>
+      </c>
+      <c r="M103">
+        <v>-463.7999999999993</v>
+      </c>
+      <c r="N103">
+        <v>-35988.09999999974</v>
+      </c>
+      <c r="O103">
+        <v>0.2664554987641878</v>
+      </c>
+      <c r="P103">
+        <v>-410.5465496982596</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16">
+      <c r="A104">
+        <v>8</v>
+      </c>
+      <c r="B104" t="s">
+        <v>16</v>
+      </c>
+      <c r="C104" t="s">
+        <v>19</v>
+      </c>
+      <c r="D104">
+        <v>2020</v>
+      </c>
+      <c r="E104">
+        <v>2023</v>
+      </c>
+      <c r="F104">
+        <v>40</v>
+      </c>
+      <c r="G104">
+        <v>1.2</v>
+      </c>
+      <c r="H104">
+        <v>50</v>
+      </c>
+      <c r="I104">
+        <v>500</v>
+      </c>
+      <c r="J104">
+        <v>200</v>
+      </c>
+      <c r="K104">
+        <v>-99123</v>
+      </c>
+      <c r="L104">
+        <v>22925</v>
+      </c>
+      <c r="M104">
+        <v>-703</v>
+      </c>
+      <c r="N104">
+        <v>-99826</v>
+      </c>
+      <c r="O104">
+        <v>0.1770556161395856</v>
+      </c>
+      <c r="P104">
+        <v>-422.3115322785346</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16">
+      <c r="A105">
+        <v>0</v>
+      </c>
+      <c r="B105" t="s">
+        <v>16</v>
+      </c>
+      <c r="C105" t="s">
+        <v>19</v>
+      </c>
+      <c r="D105">
+        <v>2020</v>
+      </c>
+      <c r="E105">
+        <v>2023</v>
+      </c>
+      <c r="F105">
+        <v>70</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+      <c r="H105">
+        <v>50</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>-103056</v>
+      </c>
+      <c r="L105">
+        <v>34294</v>
+      </c>
+      <c r="M105">
+        <v>-656</v>
+      </c>
+      <c r="N105">
+        <v>-103712</v>
+      </c>
+      <c r="O105">
+        <v>0.354814253222138</v>
+      </c>
+      <c r="P105">
+        <v>-438.7511633809967</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16">
+      <c r="A106">
+        <v>11</v>
+      </c>
+      <c r="B106" t="s">
+        <v>16</v>
+      </c>
+      <c r="C106" t="s">
+        <v>19</v>
+      </c>
+      <c r="D106">
+        <v>2020</v>
+      </c>
+      <c r="E106">
+        <v>2023</v>
+      </c>
+      <c r="F106">
+        <v>40</v>
+      </c>
+      <c r="G106">
+        <v>2.1</v>
+      </c>
+      <c r="H106">
+        <v>50</v>
+      </c>
+      <c r="I106">
+        <v>450</v>
+      </c>
+      <c r="J106">
+        <v>100</v>
+      </c>
+      <c r="K106">
+        <v>-106624</v>
+      </c>
+      <c r="L106">
+        <v>14567</v>
+      </c>
+      <c r="M106">
+        <v>-756</v>
+      </c>
+      <c r="N106">
+        <v>-107380</v>
+      </c>
+      <c r="O106">
+        <v>0.2664927576028008</v>
+      </c>
+      <c r="P106">
+        <v>-454.2685506388019</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16">
+      <c r="A107">
+        <v>6</v>
+      </c>
+      <c r="B107" t="s">
+        <v>16</v>
+      </c>
+      <c r="C107" t="s">
+        <v>19</v>
+      </c>
+      <c r="D107">
+        <v>2020</v>
+      </c>
+      <c r="E107">
+        <v>2023</v>
+      </c>
+      <c r="F107">
+        <v>50</v>
+      </c>
+      <c r="G107">
+        <v>1.9</v>
+      </c>
+      <c r="H107">
+        <v>50</v>
+      </c>
+      <c r="I107">
+        <v>500</v>
+      </c>
+      <c r="J107">
+        <v>350</v>
+      </c>
+      <c r="K107">
+        <v>-106693</v>
+      </c>
+      <c r="L107">
+        <v>13378</v>
+      </c>
+      <c r="M107">
+        <v>-756</v>
+      </c>
+      <c r="N107">
+        <v>-107449</v>
+      </c>
+      <c r="O107">
+        <v>0.1234115712363582</v>
+      </c>
+      <c r="P107">
+        <v>-454.5604535070649</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16">
+      <c r="A108">
+        <v>9</v>
+      </c>
+      <c r="B108" t="s">
+        <v>16</v>
+      </c>
+      <c r="C108" t="s">
+        <v>19</v>
+      </c>
+      <c r="D108">
+        <v>2020</v>
+      </c>
+      <c r="E108">
+        <v>2023</v>
+      </c>
+      <c r="F108">
+        <v>100</v>
+      </c>
+      <c r="G108">
+        <v>0.4</v>
+      </c>
+      <c r="H108">
+        <v>200</v>
+      </c>
+      <c r="I108">
+        <v>500</v>
+      </c>
+      <c r="J108">
+        <v>450</v>
+      </c>
+      <c r="K108">
+        <v>-111456</v>
+      </c>
+      <c r="L108">
+        <v>9510</v>
+      </c>
+      <c r="M108">
+        <v>-1062</v>
+      </c>
+      <c r="N108">
+        <v>-112518</v>
+      </c>
+      <c r="O108">
+        <v>0.1991587802313354</v>
+      </c>
+      <c r="P108">
+        <v>-476.0047381335139</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16">
+      <c r="A109">
+        <v>0</v>
+      </c>
+      <c r="B109" t="s">
+        <v>18</v>
+      </c>
+      <c r="C109" t="s">
+        <v>19</v>
+      </c>
+      <c r="D109">
+        <v>2020</v>
+      </c>
+      <c r="E109">
+        <v>2023</v>
+      </c>
+      <c r="F109">
+        <v>70</v>
+      </c>
+      <c r="G109">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="H109">
+        <v>100</v>
+      </c>
+      <c r="I109">
+        <v>450</v>
+      </c>
+      <c r="J109">
+        <v>150</v>
+      </c>
+      <c r="K109">
+        <v>-151904.500000001</v>
+      </c>
+      <c r="L109">
+        <v>28243</v>
+      </c>
+      <c r="M109">
+        <v>-1048</v>
+      </c>
+      <c r="N109">
+        <v>-152952.500000001</v>
+      </c>
+      <c r="O109">
+        <v>0.2569132174344085</v>
+      </c>
+      <c r="P109">
+        <v>-534.4719140386162</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16">
+      <c r="A110">
+        <v>8</v>
+      </c>
+      <c r="B110" t="s">
+        <v>16</v>
+      </c>
+      <c r="C110" t="s">
+        <v>19</v>
+      </c>
+      <c r="D110">
+        <v>2020</v>
+      </c>
+      <c r="E110">
+        <v>2023</v>
+      </c>
+      <c r="F110">
+        <v>50</v>
+      </c>
+      <c r="G110">
         <v>0.9000000000000001</v>
       </c>
-      <c r="H27">
+      <c r="H110">
+        <v>50</v>
+      </c>
+      <c r="I110">
+        <v>350</v>
+      </c>
+      <c r="J110">
+        <v>50</v>
+      </c>
+      <c r="K110">
+        <v>-130701</v>
+      </c>
+      <c r="L110">
+        <v>37669</v>
+      </c>
+      <c r="M110">
+        <v>-658</v>
+      </c>
+      <c r="N110">
+        <v>-131359</v>
+      </c>
+      <c r="O110">
+        <v>0.312086861875813</v>
+      </c>
+      <c r="P110">
+        <v>-555.7111430747102</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16">
+      <c r="A111">
+        <v>5</v>
+      </c>
+      <c r="B111" t="s">
+        <v>16</v>
+      </c>
+      <c r="C111" t="s">
+        <v>19</v>
+      </c>
+      <c r="D111">
+        <v>2020</v>
+      </c>
+      <c r="E111">
+        <v>2023</v>
+      </c>
+      <c r="F111">
+        <v>100</v>
+      </c>
+      <c r="G111">
+        <v>1.1</v>
+      </c>
+      <c r="H111">
+        <v>50</v>
+      </c>
+      <c r="I111">
+        <v>350</v>
+      </c>
+      <c r="J111">
+        <v>100</v>
+      </c>
+      <c r="K111">
+        <v>-166617</v>
+      </c>
+      <c r="L111">
+        <v>29087</v>
+      </c>
+      <c r="M111">
+        <v>-703</v>
+      </c>
+      <c r="N111">
+        <v>-167320</v>
+      </c>
+      <c r="O111">
+        <v>0.258878536803383</v>
+      </c>
+      <c r="P111">
+        <v>-707.8433031559354</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16">
+      <c r="A112">
+        <v>7</v>
+      </c>
+      <c r="B112" t="s">
+        <v>17</v>
+      </c>
+      <c r="C112" t="s">
+        <v>19</v>
+      </c>
+      <c r="D112">
+        <v>2020</v>
+      </c>
+      <c r="E112">
+        <v>2023</v>
+      </c>
+      <c r="F112">
+        <v>40</v>
+      </c>
+      <c r="G112">
+        <v>1.9</v>
+      </c>
+      <c r="H112">
         <v>20</v>
       </c>
-      <c r="I27">
+      <c r="I112">
+        <v>160</v>
+      </c>
+      <c r="J112">
+        <v>120</v>
+      </c>
+      <c r="K112">
+        <v>-62329.30000000013</v>
+      </c>
+      <c r="L112">
+        <v>15027</v>
+      </c>
+      <c r="M112">
+        <v>-345.3000000000011</v>
+      </c>
+      <c r="N112">
+        <v>-62674.60000000014</v>
+      </c>
+      <c r="O112">
+        <v>0.132561389498902</v>
+      </c>
+      <c r="P112">
+        <v>-714.9819185708271</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16">
+      <c r="A113">
+        <v>3</v>
+      </c>
+      <c r="B113" t="s">
+        <v>16</v>
+      </c>
+      <c r="C113" t="s">
+        <v>19</v>
+      </c>
+      <c r="D113">
+        <v>2020</v>
+      </c>
+      <c r="E113">
+        <v>2023</v>
+      </c>
+      <c r="F113">
+        <v>20</v>
+      </c>
+      <c r="G113">
+        <v>1</v>
+      </c>
+      <c r="H113">
+        <v>50</v>
+      </c>
+      <c r="I113">
+        <v>150</v>
+      </c>
+      <c r="J113">
+        <v>100</v>
+      </c>
+      <c r="K113">
+        <v>-189857</v>
+      </c>
+      <c r="L113">
+        <v>32030</v>
+      </c>
+      <c r="M113">
+        <v>-703</v>
+      </c>
+      <c r="N113">
+        <v>-190560</v>
+      </c>
+      <c r="O113">
+        <v>0.2517015298157977</v>
+      </c>
+      <c r="P113">
+        <v>-806.1595735679838</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16">
+      <c r="A114">
+        <v>1</v>
+      </c>
+      <c r="B114" t="s">
+        <v>17</v>
+      </c>
+      <c r="C114" t="s">
+        <v>19</v>
+      </c>
+      <c r="D114">
+        <v>2020</v>
+      </c>
+      <c r="E114">
+        <v>2023</v>
+      </c>
+      <c r="F114">
+        <v>50</v>
+      </c>
+      <c r="G114">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="H114">
+        <v>20</v>
+      </c>
+      <c r="I114">
         <v>0</v>
       </c>
-      <c r="J27">
+      <c r="J114">
         <v>0</v>
       </c>
-      <c r="K27">
+      <c r="K114">
         <v>-84208.20000000112</v>
       </c>
-      <c r="L27">
+      <c r="L114">
         <v>36663</v>
       </c>
-      <c r="M27">
+      <c r="M114">
         <v>-440.6000000000004</v>
       </c>
-      <c r="N27">
+      <c r="N114">
         <v>-84648.80000000112</v>
       </c>
-      <c r="O27">
+      <c r="O114">
         <v>0.3509805526007146</v>
       </c>
-      <c r="P27">
+      <c r="P114">
         <v>-965.6601147629008</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16">
+      <c r="A115">
+        <v>12</v>
+      </c>
+      <c r="B115" t="s">
+        <v>17</v>
+      </c>
+      <c r="C115" t="s">
+        <v>19</v>
+      </c>
+      <c r="D115">
+        <v>2020</v>
+      </c>
+      <c r="E115">
+        <v>2023</v>
+      </c>
+      <c r="F115">
+        <v>90</v>
+      </c>
+      <c r="G115">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="H115">
+        <v>20</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>-112842.2999999999</v>
+      </c>
+      <c r="L115">
+        <v>50440</v>
+      </c>
+      <c r="M115">
+        <v>-440.6000000000004</v>
+      </c>
+      <c r="N115">
+        <v>-113282.8999999999</v>
+      </c>
+      <c r="O115">
+        <v>0.3596352101506741</v>
+      </c>
+      <c r="P115">
+        <v>-1292.313396228566</v>
       </c>
     </row>
   </sheetData>
